--- a/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.01132041364068</v>
+      </c>
+      <c r="D3">
         <v>1.034579631078093</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9762540505321041</v>
+      </c>
+      <c r="F3">
+        <v>0.9966298369028969</v>
+      </c>
+      <c r="G3">
         <v>0.9618243657290091</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>1.034579631078093</v>
+      </c>
+      <c r="I3">
         <v>1.003924112627595</v>
-      </c>
-      <c r="F3">
-        <v>1.034579631078093</v>
-      </c>
-      <c r="G3">
-        <v>0.9966298369028969</v>
-      </c>
-      <c r="H3">
-        <v>0.9762540505321041</v>
-      </c>
-      <c r="I3">
-        <v>1.01132041364068</v>
       </c>
       <c r="J3">
         <v>0.9618243657290091</v>
@@ -728,7 +680,7 @@
         <v>0.9974220684183965</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.021652776592006</v>
+      </c>
+      <c r="D4">
         <v>1.067179957950734</v>
       </c>
-      <c r="D4">
-        <v>0.9254447444730067</v>
-      </c>
       <c r="E4">
+        <v>0.9544102242819533</v>
+      </c>
+      <c r="F4">
+        <v>0.9937205851426282</v>
+      </c>
+      <c r="G4">
+        <v>0.925444744473007</v>
+      </c>
+      <c r="H4">
+        <v>1.067179957950734</v>
+      </c>
+      <c r="I4">
         <v>1.006935363933727</v>
       </c>
-      <c r="F4">
-        <v>1.067179957950734</v>
-      </c>
-      <c r="G4">
-        <v>0.9937205851426282</v>
-      </c>
-      <c r="H4">
-        <v>0.9544102242819533</v>
-      </c>
-      <c r="I4">
-        <v>1.021652776592006</v>
-      </c>
       <c r="J4">
-        <v>0.9254447444730067</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="K4">
         <v>1.067179957950734</v>
@@ -766,19 +718,19 @@
         <v>1.006935363933727</v>
       </c>
       <c r="M4">
-        <v>0.9661900542033667</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="N4">
-        <v>0.9661900542033667</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="O4">
-        <v>0.9622634442295622</v>
+        <v>0.9622634442295624</v>
       </c>
       <c r="P4">
-        <v>0.999853355452489</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="Q4">
-        <v>0.999853355452489</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="R4">
         <v>1.01668500607705</v>
@@ -790,7 +742,7 @@
         <v>0.9948906087290091</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.041334284386639</v>
+      </c>
+      <c r="D5">
         <v>1.124380691804845</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9125617657531547</v>
+      </c>
+      <c r="F5">
+        <v>0.9931891339080764</v>
+      </c>
+      <c r="G5">
         <v>0.8608762470505512</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1.124380691804845</v>
+      </c>
+      <c r="I5">
         <v>1.015458894132855</v>
-      </c>
-      <c r="F5">
-        <v>1.124380691804845</v>
-      </c>
-      <c r="G5">
-        <v>0.9931891339080764</v>
-      </c>
-      <c r="H5">
-        <v>0.9125617657531547</v>
-      </c>
-      <c r="I5">
-        <v>1.041334284386639</v>
       </c>
       <c r="J5">
         <v>0.8608762470505512</v>
@@ -852,7 +804,7 @@
         <v>0.9913001695060202</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.062767084433053</v>
+      </c>
+      <c r="D6">
         <v>1.184773234761877</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.8693297404758371</v>
+      </c>
+      <c r="F6">
+        <v>0.982677257734535</v>
+      </c>
+      <c r="G6">
         <v>0.8011675192678853</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>1.184773234761877</v>
+      </c>
+      <c r="I6">
         <v>1.033312387494273</v>
-      </c>
-      <c r="F6">
-        <v>1.184773234761877</v>
-      </c>
-      <c r="G6">
-        <v>0.9826772577345348</v>
-      </c>
-      <c r="H6">
-        <v>0.8693297404758371</v>
-      </c>
-      <c r="I6">
-        <v>1.062767084433053</v>
       </c>
       <c r="J6">
         <v>0.8011675192678853</v>
@@ -911,10 +863,10 @@
         <v>1.051006594071478</v>
       </c>
       <c r="T6">
-        <v>0.9890045373612432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9890045373612434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000197740985402</v>
+      </c>
+      <c r="D7">
         <v>0.9995370804665902</v>
       </c>
-      <c r="D7">
-        <v>0.9987169512271277</v>
-      </c>
       <c r="E7">
+        <v>0.9988073954148339</v>
+      </c>
+      <c r="F7">
+        <v>1.004298127569101</v>
+      </c>
+      <c r="G7">
+        <v>0.9987169512271267</v>
+      </c>
+      <c r="H7">
+        <v>0.9995370804665902</v>
+      </c>
+      <c r="I7">
         <v>1.000615987047563</v>
       </c>
-      <c r="F7">
-        <v>0.9995370804665902</v>
-      </c>
-      <c r="G7">
-        <v>1.004298127569101</v>
-      </c>
-      <c r="H7">
-        <v>0.9988073954148344</v>
-      </c>
-      <c r="I7">
-        <v>1.000197740985402</v>
-      </c>
       <c r="J7">
-        <v>0.9987169512271277</v>
+        <v>0.9987169512271267</v>
       </c>
       <c r="K7">
         <v>0.9995370804665902</v>
@@ -952,31 +904,31 @@
         <v>1.000615987047563</v>
       </c>
       <c r="M7">
-        <v>0.9996664691373452</v>
+        <v>0.9996664691373447</v>
       </c>
       <c r="N7">
-        <v>0.9996664691373452</v>
+        <v>0.9996664691373447</v>
       </c>
       <c r="O7">
-        <v>0.9993801112298417</v>
+        <v>0.9993801112298412</v>
       </c>
       <c r="P7">
-        <v>0.9996233395804269</v>
+        <v>0.9996233395804266</v>
       </c>
       <c r="Q7">
-        <v>0.9996233395804269</v>
+        <v>0.9996233395804266</v>
       </c>
       <c r="R7">
-        <v>0.9996017748019677</v>
+        <v>0.9996017748019674</v>
       </c>
       <c r="S7">
-        <v>0.9996017748019677</v>
+        <v>0.9996017748019674</v>
       </c>
       <c r="T7">
         <v>1.000362213785103</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994938283572331</v>
+        <v>1.000592092513161</v>
       </c>
       <c r="D8">
-        <v>0.9964726019807257</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="E8">
-        <v>1.00139786610254</v>
+        <v>0.9969317925085026</v>
       </c>
       <c r="F8">
-        <v>0.9994938283572331</v>
+        <v>1.01006483889156</v>
       </c>
       <c r="G8">
-        <v>1.010064838891559</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="H8">
-        <v>0.9969317925085027</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="I8">
-        <v>1.000592092513161</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="J8">
-        <v>0.9964726019807257</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="K8">
-        <v>0.9994938283572331</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="L8">
-        <v>1.00139786610254</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="M8">
-        <v>0.998935234041633</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="N8">
-        <v>0.998935234041633</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="O8">
-        <v>0.9982674201972562</v>
+        <v>0.9982674201972564</v>
       </c>
       <c r="P8">
-        <v>0.999121432146833</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="Q8">
-        <v>0.999121432146833</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="R8">
         <v>0.999214531199433</v>
@@ -1038,7 +990,7 @@
         <v>1.000825503392287</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.001028698061602</v>
+      </c>
+      <c r="D9">
         <v>1.000860030968047</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9954975254311549</v>
+      </c>
+      <c r="F9">
+        <v>1.012092466266012</v>
+      </c>
+      <c r="G9">
         <v>0.9943265505333011</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.000860030968047</v>
+      </c>
+      <c r="I9">
         <v>1.001644391362686</v>
-      </c>
-      <c r="F9">
-        <v>1.000860030968047</v>
-      </c>
-      <c r="G9">
-        <v>1.012092466266012</v>
-      </c>
-      <c r="H9">
-        <v>0.9954975254311549</v>
-      </c>
-      <c r="I9">
-        <v>1.001028698061602</v>
       </c>
       <c r="J9">
         <v>0.9943265505333011</v>
@@ -1100,7 +1052,7 @@
         <v>1.0009082771038</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.00186882145322</v>
+      </c>
+      <c r="D10">
         <v>1.000047966829039</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9905061263809614</v>
+      </c>
+      <c r="F10">
+        <v>1.028927011757955</v>
+      </c>
+      <c r="G10">
         <v>0.9889672999203527</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>1.000047966829039</v>
+      </c>
+      <c r="I10">
         <v>1.003792084342151</v>
-      </c>
-      <c r="F10">
-        <v>1.000047966829039</v>
-      </c>
-      <c r="G10">
-        <v>1.028927011757955</v>
-      </c>
-      <c r="H10">
-        <v>0.9905061263809614</v>
-      </c>
-      <c r="I10">
-        <v>1.00186882145322</v>
       </c>
       <c r="J10">
         <v>0.9889672999203527</v>
@@ -1162,7 +1114,7 @@
         <v>1.002351551780613</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.003601551171498</v>
+      </c>
+      <c r="D11">
         <v>1.004135408050299</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9838166068612098</v>
+      </c>
+      <c r="F11">
+        <v>1.042942722409196</v>
+      </c>
+      <c r="G11">
         <v>0.9802439329215339</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1.004135408050299</v>
+      </c>
+      <c r="I11">
         <v>1.005347399530903</v>
-      </c>
-      <c r="F11">
-        <v>1.004135408050299</v>
-      </c>
-      <c r="G11">
-        <v>1.042942722409196</v>
-      </c>
-      <c r="H11">
-        <v>0.9838166068612095</v>
-      </c>
-      <c r="I11">
-        <v>1.003601551171498</v>
       </c>
       <c r="J11">
         <v>0.9802439329215339</v>
@@ -1206,7 +1158,7 @@
         <v>0.9927956662262187</v>
       </c>
       <c r="O11">
-        <v>0.9898026464378823</v>
+        <v>0.9898026464378824</v>
       </c>
       <c r="P11">
         <v>0.9965755801675787</v>
@@ -1224,7 +1176,7 @@
         <v>1.003347936824107</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9545422929170098</v>
+      </c>
+      <c r="D12">
         <v>1.306567086775266</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.151264810053729</v>
+      </c>
+      <c r="F12">
+        <v>0.3915885631048786</v>
+      </c>
+      <c r="G12">
         <v>1.016720245427739</v>
       </c>
-      <c r="E12">
-        <v>0.8043963162955586</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.306567086775266</v>
       </c>
-      <c r="G12">
-        <v>0.3915885631048789</v>
-      </c>
-      <c r="H12">
-        <v>1.151264810053729</v>
-      </c>
       <c r="I12">
-        <v>0.9545422929170096</v>
+        <v>0.8043963162955584</v>
       </c>
       <c r="J12">
         <v>1.016720245427739</v>
@@ -1259,7 +1211,7 @@
         <v>1.306567086775266</v>
       </c>
       <c r="L12">
-        <v>0.8043963162955586</v>
+        <v>0.8043963162955584</v>
       </c>
       <c r="M12">
         <v>0.9105582808616488</v>
@@ -1268,7 +1220,7 @@
         <v>0.9105582808616488</v>
       </c>
       <c r="O12">
-        <v>0.9907937905923422</v>
+        <v>0.9907937905923423</v>
       </c>
       <c r="P12">
         <v>1.042561216166188</v>
@@ -1286,7 +1238,7 @@
         <v>0.9375132190956968</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9803024679840763</v>
+      </c>
+      <c r="D13">
         <v>0.8282413586221009</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.026464024244751</v>
+      </c>
+      <c r="F13">
+        <v>1.103163809605186</v>
+      </c>
+      <c r="G13">
         <v>1.220087447326808</v>
       </c>
-      <c r="E13">
-        <v>1.045606209063363</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.8282413586221009</v>
       </c>
-      <c r="G13">
-        <v>1.103163809605186</v>
-      </c>
-      <c r="H13">
-        <v>1.02646402424475</v>
-      </c>
       <c r="I13">
-        <v>0.9803024679840762</v>
+        <v>1.045606209063362</v>
       </c>
       <c r="J13">
         <v>1.220087447326808</v>
@@ -1321,7 +1273,7 @@
         <v>0.8282413586221009</v>
       </c>
       <c r="L13">
-        <v>1.045606209063363</v>
+        <v>1.045606209063362</v>
       </c>
       <c r="M13">
         <v>1.132846828195085</v>
@@ -1348,7 +1300,7 @@
         <v>1.033977552807714</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9535375630950802</v>
+      </c>
+      <c r="D14">
         <v>1.313706091969205</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1.140148854133967</v>
+      </c>
+      <c r="F14">
+        <v>0.4178431623142244</v>
+      </c>
+      <c r="G14">
         <v>1.125456940596353</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="I14">
         <v>0.7870593508693956</v>
-      </c>
-      <c r="F14">
-        <v>1.313706091969205</v>
-      </c>
-      <c r="G14">
-        <v>0.4178431623142245</v>
-      </c>
-      <c r="H14">
-        <v>1.140148854133967</v>
-      </c>
-      <c r="I14">
-        <v>0.9535375630950803</v>
       </c>
       <c r="J14">
         <v>1.125456940596353</v>
@@ -1410,7 +1362,7 @@
         <v>0.9562919938297041</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7900084152057386</v>
+        <v>0.9767818221903002</v>
       </c>
       <c r="D15">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="E15">
+        <v>1.052349445627135</v>
+      </c>
+      <c r="F15">
+        <v>1.105634345971594</v>
+      </c>
+      <c r="G15">
         <v>1.094161018815264</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="I15">
         <v>1.06089073210089</v>
-      </c>
-      <c r="F15">
-        <v>0.7900084152057386</v>
-      </c>
-      <c r="G15">
-        <v>1.105634345971594</v>
-      </c>
-      <c r="H15">
-        <v>1.052349445627135</v>
-      </c>
-      <c r="I15">
-        <v>0.9767818221903003</v>
       </c>
       <c r="J15">
         <v>1.094161018815264</v>
       </c>
       <c r="K15">
-        <v>0.7900084152057386</v>
+        <v>0.7900084152057384</v>
       </c>
       <c r="L15">
         <v>1.06089073210089</v>
@@ -1472,7 +1424,7 @@
         <v>1.01330429665182</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9925079586246823</v>
+        <v>1.212445129631646</v>
       </c>
       <c r="D16">
-        <v>1.000767792840092</v>
+        <v>1.607552749084995</v>
       </c>
       <c r="E16">
-        <v>1.003113249223175</v>
+        <v>0.5518776442498021</v>
       </c>
       <c r="F16">
-        <v>0.9925079586246823</v>
+        <v>1.008128311243438</v>
       </c>
       <c r="G16">
-        <v>1.005698510924666</v>
+        <v>0.2614013373910063</v>
       </c>
       <c r="H16">
-        <v>1.00036455299345</v>
+        <v>1.607552749084995</v>
       </c>
       <c r="I16">
-        <v>0.999994527275843</v>
+        <v>1.082614542897412</v>
       </c>
       <c r="J16">
-        <v>1.000767792840092</v>
+        <v>0.2614013373910063</v>
       </c>
       <c r="K16">
-        <v>0.9925079586246823</v>
+        <v>1.607552749084995</v>
       </c>
       <c r="L16">
-        <v>1.003113249223175</v>
+        <v>1.082614542897412</v>
       </c>
       <c r="M16">
-        <v>1.001940521031634</v>
+        <v>0.6720079401442089</v>
       </c>
       <c r="N16">
-        <v>1.001940521031634</v>
+        <v>0.6720079401442089</v>
       </c>
       <c r="O16">
-        <v>1.001415198352239</v>
+        <v>0.6319645081794066</v>
       </c>
       <c r="P16">
-        <v>0.99879633356265</v>
+        <v>0.9838562097911376</v>
       </c>
       <c r="Q16">
-        <v>0.99879633356265</v>
+        <v>0.9838562097911376</v>
       </c>
       <c r="R16">
-        <v>0.9972242398281581</v>
+        <v>1.139780344614602</v>
       </c>
       <c r="S16">
-        <v>0.9972242398281581</v>
+        <v>1.139780344614602</v>
       </c>
       <c r="T16">
-        <v>1.000407765313652</v>
+        <v>0.9540032857497165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.009267844170714</v>
+        <v>1.157326053438646</v>
       </c>
       <c r="D17">
-        <v>0.9963471665628408</v>
+        <v>1.384700378064838</v>
       </c>
       <c r="E17">
-        <v>0.9961982934536814</v>
+        <v>0.6494128768528208</v>
       </c>
       <c r="F17">
-        <v>1.009267844170714</v>
+        <v>1.153323839190768</v>
       </c>
       <c r="G17">
-        <v>0.9992688885810564</v>
+        <v>0.4428305013262628</v>
       </c>
       <c r="H17">
-        <v>0.9983071542994405</v>
+        <v>1.384700378064838</v>
       </c>
       <c r="I17">
-        <v>0.9998677539461212</v>
+        <v>1.087645488928529</v>
       </c>
       <c r="J17">
-        <v>0.9963471665628408</v>
+        <v>0.4428305013262628</v>
       </c>
       <c r="K17">
-        <v>1.009267844170714</v>
+        <v>1.384700378064838</v>
       </c>
       <c r="L17">
-        <v>0.9961982934536814</v>
+        <v>1.087645488928529</v>
       </c>
       <c r="M17">
-        <v>0.9962727300082611</v>
+        <v>0.7652379951273958</v>
       </c>
       <c r="N17">
-        <v>0.9962727300082611</v>
+        <v>0.7652379951273958</v>
       </c>
       <c r="O17">
-        <v>0.9969508714386542</v>
+        <v>0.7266296223692041</v>
       </c>
       <c r="P17">
-        <v>1.000604434729079</v>
+        <v>0.971725456106543</v>
       </c>
       <c r="Q17">
-        <v>1.000604434729079</v>
+        <v>0.971725456106543</v>
       </c>
       <c r="R17">
-        <v>1.002770287089488</v>
+        <v>1.074969186596117</v>
       </c>
       <c r="S17">
-        <v>1.002770287089488</v>
+        <v>1.074969186596117</v>
       </c>
       <c r="T17">
-        <v>0.9998761835023092</v>
+        <v>0.9792065229669774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926466223289676</v>
+        <v>1.047410581903247</v>
       </c>
       <c r="D18">
-        <v>0.9898966027073223</v>
+        <v>0.9429489328409261</v>
       </c>
       <c r="E18">
-        <v>1.010456740209439</v>
+        <v>0.8446453816297866</v>
       </c>
       <c r="F18">
-        <v>0.9926466223289676</v>
+        <v>1.437002800939441</v>
       </c>
       <c r="G18">
-        <v>1.011501138461547</v>
+        <v>0.8050729317155667</v>
       </c>
       <c r="H18">
-        <v>0.9931579550866466</v>
+        <v>0.9429489328409261</v>
       </c>
       <c r="I18">
-        <v>1.003614109473853</v>
+        <v>1.096605069259949</v>
       </c>
       <c r="J18">
-        <v>0.9898966027073223</v>
+        <v>0.8050729317155667</v>
       </c>
       <c r="K18">
-        <v>0.9926466223289676</v>
+        <v>0.9429489328409261</v>
       </c>
       <c r="L18">
-        <v>1.010456740209439</v>
+        <v>1.096605069259949</v>
       </c>
       <c r="M18">
-        <v>1.00017667145838</v>
+        <v>0.9508390004877577</v>
       </c>
       <c r="N18">
-        <v>1.00017667145838</v>
+        <v>0.9508390004877577</v>
       </c>
       <c r="O18">
-        <v>0.9978370993344692</v>
+        <v>0.9154411275351007</v>
       </c>
       <c r="P18">
-        <v>0.9976666550819094</v>
+        <v>0.9482089779388138</v>
       </c>
       <c r="Q18">
-        <v>0.9976666550819094</v>
+        <v>0.9482089779388138</v>
       </c>
       <c r="R18">
-        <v>0.996411646893674</v>
+        <v>0.9468939666643419</v>
       </c>
       <c r="S18">
-        <v>0.996411646893674</v>
+        <v>0.9468939666643419</v>
       </c>
       <c r="T18">
-        <v>1.000212194711296</v>
+        <v>1.028947616381486</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.042686006376902</v>
+      </c>
+      <c r="D19">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="E19">
+        <v>0.8311902665886178</v>
+      </c>
+      <c r="F19">
+        <v>1.55144676674477</v>
+      </c>
+      <c r="G19">
+        <v>0.8398907012589155</v>
+      </c>
+      <c r="H19">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="I19">
+        <v>1.109855264638562</v>
+      </c>
+      <c r="J19">
+        <v>0.8398907012589155</v>
+      </c>
+      <c r="K19">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="L19">
+        <v>1.109855264638562</v>
+      </c>
+      <c r="M19">
+        <v>0.9748729829487386</v>
+      </c>
+      <c r="N19">
+        <v>0.9748729829487386</v>
+      </c>
+      <c r="O19">
+        <v>0.9269787441620316</v>
+      </c>
+      <c r="P19">
+        <v>0.9493991008454231</v>
+      </c>
+      <c r="Q19">
+        <v>0.9493991008454231</v>
+      </c>
+      <c r="R19">
+        <v>0.9366621597937653</v>
+      </c>
+      <c r="S19">
+        <v>0.9366621597937653</v>
+      </c>
+      <c r="T19">
+        <v>1.04558672370776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999945272758434</v>
+      </c>
+      <c r="D20">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="E20">
+        <v>1.00036455299345</v>
+      </c>
+      <c r="F20">
+        <v>1.005698510924667</v>
+      </c>
+      <c r="G20">
+        <v>1.000767792840093</v>
+      </c>
+      <c r="H20">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="I20">
+        <v>1.003113249223175</v>
+      </c>
+      <c r="J20">
+        <v>1.000767792840093</v>
+      </c>
+      <c r="K20">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="L20">
+        <v>1.003113249223175</v>
+      </c>
+      <c r="M20">
+        <v>1.001940521031634</v>
+      </c>
+      <c r="N20">
+        <v>1.001940521031634</v>
+      </c>
+      <c r="O20">
+        <v>1.001415198352239</v>
+      </c>
+      <c r="P20">
+        <v>0.9987963335626501</v>
+      </c>
+      <c r="Q20">
+        <v>0.99879633356265</v>
+      </c>
+      <c r="R20">
+        <v>0.9972242398281582</v>
+      </c>
+      <c r="S20">
+        <v>0.9972242398281582</v>
+      </c>
+      <c r="T20">
+        <v>1.000407765313652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998677539461216</v>
+      </c>
+      <c r="D21">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="E21">
+        <v>0.9983071542994404</v>
+      </c>
+      <c r="F21">
+        <v>0.9992688885810562</v>
+      </c>
+      <c r="G21">
+        <v>0.9963471665628404</v>
+      </c>
+      <c r="H21">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="I21">
+        <v>0.9961982934536813</v>
+      </c>
+      <c r="J21">
+        <v>0.9963471665628404</v>
+      </c>
+      <c r="K21">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="L21">
+        <v>0.9961982934536813</v>
+      </c>
+      <c r="M21">
+        <v>0.9962727300082608</v>
+      </c>
+      <c r="N21">
+        <v>0.9962727300082608</v>
+      </c>
+      <c r="O21">
+        <v>0.996950871438654</v>
+      </c>
+      <c r="P21">
+        <v>1.000604434729079</v>
+      </c>
+      <c r="Q21">
+        <v>1.000604434729079</v>
+      </c>
+      <c r="R21">
+        <v>1.002770287089488</v>
+      </c>
+      <c r="S21">
+        <v>1.002770287089488</v>
+      </c>
+      <c r="T21">
+        <v>0.9998761835023092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003614109473854</v>
+      </c>
+      <c r="D22">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="E22">
+        <v>0.9931579550866466</v>
+      </c>
+      <c r="F22">
+        <v>1.011501138461547</v>
+      </c>
+      <c r="G22">
+        <v>0.989896602707322</v>
+      </c>
+      <c r="H22">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="I22">
+        <v>1.010456740209439</v>
+      </c>
+      <c r="J22">
+        <v>0.989896602707322</v>
+      </c>
+      <c r="K22">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="L22">
+        <v>1.010456740209439</v>
+      </c>
+      <c r="M22">
+        <v>1.00017667145838</v>
+      </c>
+      <c r="N22">
+        <v>1.00017667145838</v>
+      </c>
+      <c r="O22">
+        <v>0.9978370993344692</v>
+      </c>
+      <c r="P22">
+        <v>0.9976666550819094</v>
+      </c>
+      <c r="Q22">
+        <v>0.9976666550819094</v>
+      </c>
+      <c r="R22">
+        <v>0.996411646893674</v>
+      </c>
+      <c r="S22">
+        <v>0.996411646893674</v>
+      </c>
+      <c r="T22">
+        <v>1.000212194711296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.013482158644606</v>
+      </c>
+      <c r="D23">
         <v>0.9540787902493112</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9847997781540779</v>
+      </c>
+      <c r="F23">
+        <v>1.027895961864632</v>
+      </c>
+      <c r="G23">
         <v>0.9726942075478164</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9540787902493112</v>
+      </c>
+      <c r="I23">
         <v>1.037185101399756</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9726942075478164</v>
+      </c>
+      <c r="K23">
         <v>0.9540787902493112</v>
       </c>
-      <c r="G19">
-        <v>1.027895961864632</v>
-      </c>
-      <c r="H19">
-        <v>0.9847997781540779</v>
-      </c>
-      <c r="I19">
-        <v>1.013482158644606</v>
-      </c>
-      <c r="J19">
-        <v>0.9726942075478164</v>
-      </c>
-      <c r="K19">
-        <v>0.9540787902493112</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.037185101399756</v>
       </c>
-      <c r="M19">
-        <v>1.004939654473786</v>
-      </c>
-      <c r="N19">
-        <v>1.004939654473786</v>
-      </c>
-      <c r="O19">
-        <v>0.9982263623672168</v>
-      </c>
-      <c r="P19">
-        <v>0.9879860330656279</v>
-      </c>
-      <c r="Q19">
-        <v>0.9879860330656279</v>
-      </c>
-      <c r="R19">
-        <v>0.9795092223615488</v>
-      </c>
-      <c r="S19">
-        <v>0.9795092223615488</v>
-      </c>
-      <c r="T19">
-        <v>0.9983559996433665</v>
+      <c r="M23">
+        <v>1.004939654473787</v>
+      </c>
+      <c r="N23">
+        <v>1.004939654473787</v>
+      </c>
+      <c r="O23">
+        <v>0.998226362367217</v>
+      </c>
+      <c r="P23">
+        <v>0.9879860330656282</v>
+      </c>
+      <c r="Q23">
+        <v>0.9879860330656282</v>
+      </c>
+      <c r="R23">
+        <v>0.9795092223615489</v>
+      </c>
+      <c r="S23">
+        <v>0.9795092223615489</v>
+      </c>
+      <c r="T23">
+        <v>0.9983559996433667</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.01132041364068</v>
+        <v>1.054343240079247</v>
       </c>
       <c r="D3">
-        <v>1.034579631078093</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="E3">
-        <v>0.9762540505321041</v>
+        <v>0.8163665504560521</v>
       </c>
       <c r="F3">
-        <v>0.9966298369028969</v>
+        <v>1.516998534180114</v>
       </c>
       <c r="G3">
-        <v>0.9618243657290091</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="H3">
-        <v>1.034579631078093</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="I3">
-        <v>1.003924112627595</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="J3">
-        <v>0.9618243657290091</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="K3">
-        <v>1.034579631078093</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="L3">
-        <v>1.003924112627595</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="M3">
-        <v>0.9828742391783021</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="N3">
-        <v>0.9828742391783021</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="O3">
-        <v>0.9806675096295695</v>
+        <v>0.8969523077126323</v>
       </c>
       <c r="P3">
-        <v>1.000109369811566</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="Q3">
-        <v>1.000109369811566</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="R3">
-        <v>1.008726935128198</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="S3">
-        <v>1.008726935128198</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="T3">
-        <v>0.9974220684183965</v>
+        <v>1.034167123389457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.021652776592006</v>
+        <v>1.050278497405892</v>
       </c>
       <c r="D4">
-        <v>1.067179957950734</v>
+        <v>0.9392588314424131</v>
       </c>
       <c r="E4">
-        <v>0.9544102242819533</v>
+        <v>0.8322369397807466</v>
       </c>
       <c r="F4">
-        <v>0.9937205851426282</v>
+        <v>1.477036848841595</v>
       </c>
       <c r="G4">
-        <v>0.925444744473007</v>
+        <v>0.7877335702770858</v>
       </c>
       <c r="H4">
-        <v>1.067179957950734</v>
+        <v>0.9392588314424131</v>
       </c>
       <c r="I4">
-        <v>1.006935363933727</v>
+        <v>1.103312897886688</v>
       </c>
       <c r="J4">
-        <v>0.925444744473007</v>
+        <v>0.7877335702770858</v>
       </c>
       <c r="K4">
-        <v>1.067179957950734</v>
+        <v>0.9392588314424131</v>
       </c>
       <c r="L4">
-        <v>1.006935363933727</v>
+        <v>1.103312897886688</v>
       </c>
       <c r="M4">
-        <v>0.9661900542033669</v>
+        <v>0.9455232340818868</v>
       </c>
       <c r="N4">
-        <v>0.9661900542033669</v>
+        <v>0.9455232340818868</v>
       </c>
       <c r="O4">
-        <v>0.9622634442295624</v>
+        <v>0.9077611359815068</v>
       </c>
       <c r="P4">
-        <v>0.9998533554524891</v>
+        <v>0.9434350998687289</v>
       </c>
       <c r="Q4">
-        <v>0.9998533554524891</v>
+        <v>0.9434350998687289</v>
       </c>
       <c r="R4">
-        <v>1.01668500607705</v>
+        <v>0.9423910327621499</v>
       </c>
       <c r="S4">
-        <v>1.01668500607705</v>
+        <v>0.9423910327621499</v>
       </c>
       <c r="T4">
-        <v>0.9948906087290091</v>
+        <v>1.03164293093907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.041334284386639</v>
+        <v>1.061841390161725</v>
       </c>
       <c r="D5">
-        <v>1.124380691804845</v>
+        <v>0.9493718339892189</v>
       </c>
       <c r="E5">
-        <v>0.9125617657531547</v>
+        <v>0.7862664132237199</v>
       </c>
       <c r="F5">
-        <v>0.9931891339080764</v>
+        <v>1.594121224215633</v>
       </c>
       <c r="G5">
-        <v>0.8608762470505512</v>
+        <v>0.7226276457199455</v>
       </c>
       <c r="H5">
-        <v>1.124380691804845</v>
+        <v>0.9493718339892189</v>
       </c>
       <c r="I5">
-        <v>1.015458894132855</v>
+        <v>1.120798031859836</v>
       </c>
       <c r="J5">
-        <v>0.8608762470505512</v>
+        <v>0.7226276457199455</v>
       </c>
       <c r="K5">
-        <v>1.124380691804845</v>
+        <v>0.9493718339892189</v>
       </c>
       <c r="L5">
-        <v>1.015458894132855</v>
+        <v>1.120798031859836</v>
       </c>
       <c r="M5">
-        <v>0.938167570591703</v>
+        <v>0.9217128387898905</v>
       </c>
       <c r="N5">
-        <v>0.938167570591703</v>
+        <v>0.9217128387898905</v>
       </c>
       <c r="O5">
-        <v>0.929632302312187</v>
+        <v>0.8765640302678337</v>
       </c>
       <c r="P5">
-        <v>1.000238610996084</v>
+        <v>0.9309325038563333</v>
       </c>
       <c r="Q5">
-        <v>1.000238610996084</v>
+        <v>0.9309325038563333</v>
       </c>
       <c r="R5">
-        <v>1.031274131198274</v>
+        <v>0.9355423363895546</v>
       </c>
       <c r="S5">
-        <v>1.031274131198274</v>
+        <v>0.9355423363895546</v>
       </c>
       <c r="T5">
-        <v>0.9913001695060202</v>
+        <v>1.03917108986168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.062767084433053</v>
+        <v>1.068579296022729</v>
       </c>
       <c r="D6">
-        <v>1.184773234761877</v>
+        <v>0.9553080016477272</v>
       </c>
       <c r="E6">
-        <v>0.8693297404758371</v>
+        <v>0.7582089304659086</v>
       </c>
       <c r="F6">
-        <v>0.982677257734535</v>
+        <v>1.667594472727272</v>
       </c>
       <c r="G6">
-        <v>0.8011675192678853</v>
+        <v>0.6836101819613644</v>
       </c>
       <c r="H6">
-        <v>1.184773234761877</v>
+        <v>0.9553080016477272</v>
       </c>
       <c r="I6">
-        <v>1.033312387494273</v>
+        <v>1.131258971874999</v>
       </c>
       <c r="J6">
-        <v>0.8011675192678853</v>
+        <v>0.6836101819613644</v>
       </c>
       <c r="K6">
-        <v>1.184773234761877</v>
+        <v>0.9553080016477272</v>
       </c>
       <c r="L6">
-        <v>1.033312387494273</v>
+        <v>1.131258971874999</v>
       </c>
       <c r="M6">
-        <v>0.917239953381079</v>
+        <v>0.907434576918182</v>
       </c>
       <c r="N6">
-        <v>0.917239953381079</v>
+        <v>0.907434576918182</v>
       </c>
       <c r="O6">
-        <v>0.9012698824126651</v>
+        <v>0.8576926947674242</v>
       </c>
       <c r="P6">
-        <v>1.006417713841345</v>
+        <v>0.9233923851613638</v>
       </c>
       <c r="Q6">
-        <v>1.006417713841345</v>
+        <v>0.9233923851613636</v>
       </c>
       <c r="R6">
-        <v>1.051006594071478</v>
+        <v>0.9313712892829545</v>
       </c>
       <c r="S6">
-        <v>1.051006594071478</v>
+        <v>0.9313712892829545</v>
       </c>
       <c r="T6">
-        <v>0.9890045373612434</v>
+        <v>1.044093309116667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000197740985402</v>
+        <v>1.07362685424759</v>
       </c>
       <c r="D7">
-        <v>0.9995370804665902</v>
+        <v>1.196995393127232</v>
       </c>
       <c r="E7">
-        <v>0.9988073954148339</v>
+        <v>0.9096763760516555</v>
       </c>
       <c r="F7">
-        <v>1.004298127569101</v>
+        <v>0.8598092520533577</v>
       </c>
       <c r="G7">
-        <v>0.9987169512271267</v>
+        <v>0.4364732935544595</v>
       </c>
       <c r="H7">
-        <v>0.9995370804665902</v>
+        <v>1.196995393127232</v>
       </c>
       <c r="I7">
-        <v>1.000615987047563</v>
+        <v>1.027951647792565</v>
       </c>
       <c r="J7">
-        <v>0.9987169512271267</v>
+        <v>0.4364732935544595</v>
       </c>
       <c r="K7">
-        <v>0.9995370804665902</v>
+        <v>1.196995393127232</v>
       </c>
       <c r="L7">
-        <v>1.000615987047563</v>
+        <v>1.027951647792565</v>
       </c>
       <c r="M7">
-        <v>0.9996664691373447</v>
+        <v>0.7322124706735125</v>
       </c>
       <c r="N7">
-        <v>0.9996664691373447</v>
+        <v>0.7322124706735125</v>
       </c>
       <c r="O7">
-        <v>0.9993801112298412</v>
+        <v>0.79136710579956</v>
       </c>
       <c r="P7">
-        <v>0.9996233395804266</v>
+        <v>0.8871401114914189</v>
       </c>
       <c r="Q7">
-        <v>0.9996233395804266</v>
+        <v>0.8871401114914189</v>
       </c>
       <c r="R7">
-        <v>0.9996017748019674</v>
+        <v>0.9646039319003721</v>
       </c>
       <c r="S7">
-        <v>0.9996017748019674</v>
+        <v>0.9646039319003721</v>
       </c>
       <c r="T7">
-        <v>1.000362213785103</v>
+        <v>0.9174221361378101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000592092513161</v>
+        <v>1.073883197227289</v>
       </c>
       <c r="D8">
-        <v>0.9994938283572328</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="E8">
-        <v>0.9969317925085026</v>
+        <v>0.9055932554517335</v>
       </c>
       <c r="F8">
-        <v>1.01006483889156</v>
+        <v>0.8741154371911088</v>
       </c>
       <c r="G8">
-        <v>0.996472601980726</v>
+        <v>0.4341990901287684</v>
       </c>
       <c r="H8">
-        <v>0.9994938283572328</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="I8">
-        <v>1.001397866102541</v>
+        <v>1.028850083823924</v>
       </c>
       <c r="J8">
-        <v>0.996472601980726</v>
+        <v>0.4341990901287684</v>
       </c>
       <c r="K8">
-        <v>0.9994938283572328</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="L8">
-        <v>1.001397866102541</v>
+        <v>1.028850083823924</v>
       </c>
       <c r="M8">
-        <v>0.9989352340416333</v>
+        <v>0.7315245869763464</v>
       </c>
       <c r="N8">
-        <v>0.9989352340416333</v>
+        <v>0.7315245869763464</v>
       </c>
       <c r="O8">
-        <v>0.9982674201972564</v>
+        <v>0.7895474764681421</v>
       </c>
       <c r="P8">
-        <v>0.9991214321468331</v>
+        <v>0.8869037160068506</v>
       </c>
       <c r="Q8">
-        <v>0.9991214321468331</v>
+        <v>0.8869037160068506</v>
       </c>
       <c r="R8">
-        <v>0.999214531199433</v>
+        <v>0.9645932805221027</v>
       </c>
       <c r="S8">
-        <v>0.999214531199433</v>
+        <v>0.9645932805221027</v>
       </c>
       <c r="T8">
-        <v>1.000825503392287</v>
+        <v>0.9190505063151139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001028698061602</v>
+        <v>1.073809167211791</v>
       </c>
       <c r="D9">
-        <v>1.000860030968047</v>
+        <v>1.194830029076985</v>
       </c>
       <c r="E9">
-        <v>0.9954975254311549</v>
+        <v>0.9025440247611868</v>
       </c>
       <c r="F9">
-        <v>1.012092466266012</v>
+        <v>0.889893882210807</v>
       </c>
       <c r="G9">
-        <v>0.9943265505333011</v>
+        <v>0.4327468913932463</v>
       </c>
       <c r="H9">
-        <v>1.000860030968047</v>
+        <v>1.194830029076985</v>
       </c>
       <c r="I9">
-        <v>1.001644391362686</v>
+        <v>1.030454528602097</v>
       </c>
       <c r="J9">
-        <v>0.9943265505333011</v>
+        <v>0.4327468913932463</v>
       </c>
       <c r="K9">
-        <v>1.000860030968047</v>
+        <v>1.194830029076985</v>
       </c>
       <c r="L9">
-        <v>1.001644391362686</v>
+        <v>1.030454528602097</v>
       </c>
       <c r="M9">
-        <v>0.9979854709479936</v>
+        <v>0.7316007099976718</v>
       </c>
       <c r="N9">
-        <v>0.9979854709479936</v>
+        <v>0.7316007099976718</v>
       </c>
       <c r="O9">
-        <v>0.997156155775714</v>
+        <v>0.7885818149188434</v>
       </c>
       <c r="P9">
-        <v>0.9989436576213446</v>
+        <v>0.8860104830241095</v>
       </c>
       <c r="Q9">
-        <v>0.9989436576213446</v>
+        <v>0.8860104830241095</v>
       </c>
       <c r="R9">
-        <v>0.9994227509580201</v>
+        <v>0.9632153695373283</v>
       </c>
       <c r="S9">
-        <v>0.9994227509580201</v>
+        <v>0.9632153695373283</v>
       </c>
       <c r="T9">
-        <v>1.0009082771038</v>
+        <v>0.9207130872093522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00186882145322</v>
+        <v>1.073912678265192</v>
       </c>
       <c r="D10">
-        <v>1.000047966829039</v>
+        <v>1.209659986815284</v>
       </c>
       <c r="E10">
-        <v>0.9905061263809614</v>
+        <v>0.89333879324374</v>
       </c>
       <c r="F10">
-        <v>1.028927011757955</v>
+        <v>0.910838722585121</v>
       </c>
       <c r="G10">
-        <v>0.9889672999203527</v>
+        <v>0.426974587480537</v>
       </c>
       <c r="H10">
-        <v>1.000047966829039</v>
+        <v>1.209659986815284</v>
       </c>
       <c r="I10">
-        <v>1.003792084342151</v>
+        <v>1.027494282525866</v>
       </c>
       <c r="J10">
-        <v>0.9889672999203527</v>
+        <v>0.426974587480537</v>
       </c>
       <c r="K10">
-        <v>1.000047966829039</v>
+        <v>1.209659986815284</v>
       </c>
       <c r="L10">
-        <v>1.003792084342151</v>
+        <v>1.027494282525866</v>
       </c>
       <c r="M10">
-        <v>0.996379692131252</v>
+        <v>0.7272344350032016</v>
       </c>
       <c r="N10">
-        <v>0.996379692131252</v>
+        <v>0.7272344350032016</v>
       </c>
       <c r="O10">
-        <v>0.9944218368811552</v>
+        <v>0.7826025544167144</v>
       </c>
       <c r="P10">
-        <v>0.9976024503638478</v>
+        <v>0.8880429522738957</v>
       </c>
       <c r="Q10">
-        <v>0.9976024503638478</v>
+        <v>0.8880429522738957</v>
       </c>
       <c r="R10">
-        <v>0.9982138294801457</v>
+        <v>0.9684472109092428</v>
       </c>
       <c r="S10">
-        <v>0.9982138294801457</v>
+        <v>0.9684472109092428</v>
       </c>
       <c r="T10">
-        <v>1.002351551780613</v>
+        <v>0.9237031751526233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003601551171498</v>
+        <v>1.012411069978353</v>
       </c>
       <c r="D11">
-        <v>1.004135408050299</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="E11">
-        <v>0.9838166068612098</v>
+        <v>0.974792843985537</v>
       </c>
       <c r="F11">
-        <v>1.042942722409196</v>
+        <v>0.9962065588078522</v>
       </c>
       <c r="G11">
-        <v>0.9802439329215339</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="H11">
-        <v>1.004135408050299</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="I11">
-        <v>1.005347399530903</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="J11">
-        <v>0.9802439329215339</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="K11">
-        <v>1.004135408050299</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="L11">
-        <v>1.005347399530903</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="M11">
-        <v>0.9927956662262187</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="N11">
-        <v>0.9927956662262187</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="O11">
-        <v>0.9898026464378824</v>
+        <v>0.9784237124448292</v>
       </c>
       <c r="P11">
-        <v>0.9965755801675787</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="Q11">
-        <v>0.9965755801675787</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="R11">
-        <v>0.9984655371382587</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="S11">
-        <v>0.9984655371382587</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="T11">
-        <v>1.003347936824107</v>
+        <v>0.9967336490242366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9545422929170098</v>
+        <v>1.005826672532982</v>
       </c>
       <c r="D12">
-        <v>1.306567086775266</v>
+        <v>1.018372359588342</v>
       </c>
       <c r="E12">
-        <v>1.151264810053729</v>
+        <v>0.988041464592718</v>
       </c>
       <c r="F12">
-        <v>0.3915885631048786</v>
+        <v>0.9976251268312</v>
       </c>
       <c r="G12">
-        <v>1.016720245427739</v>
+        <v>0.9777648390942094</v>
       </c>
       <c r="H12">
-        <v>1.306567086775266</v>
+        <v>1.018372359588342</v>
       </c>
       <c r="I12">
-        <v>0.8043963162955584</v>
+        <v>1.001690639452184</v>
       </c>
       <c r="J12">
-        <v>1.016720245427739</v>
+        <v>0.9777648390942094</v>
       </c>
       <c r="K12">
-        <v>1.306567086775266</v>
+        <v>1.018372359588342</v>
       </c>
       <c r="L12">
-        <v>0.8043963162955584</v>
+        <v>1.001690639452184</v>
       </c>
       <c r="M12">
-        <v>0.9105582808616488</v>
+        <v>0.9897277392731969</v>
       </c>
       <c r="N12">
-        <v>0.9105582808616488</v>
+        <v>0.9897277392731969</v>
       </c>
       <c r="O12">
-        <v>0.9907937905923423</v>
+        <v>0.9891656477130373</v>
       </c>
       <c r="P12">
-        <v>1.042561216166188</v>
+        <v>0.9992759460449121</v>
       </c>
       <c r="Q12">
-        <v>1.042561216166188</v>
+        <v>0.999275946044912</v>
       </c>
       <c r="R12">
-        <v>1.108562683818457</v>
+        <v>1.00405004943077</v>
       </c>
       <c r="S12">
-        <v>1.108562683818457</v>
+        <v>1.00405004943077</v>
       </c>
       <c r="T12">
-        <v>0.9375132190956968</v>
+        <v>0.9982201836819392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9803024679840763</v>
+        <v>1.020582707502966</v>
       </c>
       <c r="D13">
-        <v>0.8282413586221009</v>
+        <v>1.068468561576755</v>
       </c>
       <c r="E13">
-        <v>1.026464024244751</v>
+        <v>0.9585306589397432</v>
       </c>
       <c r="F13">
-        <v>1.103163809605186</v>
+        <v>0.9840539919404584</v>
       </c>
       <c r="G13">
-        <v>1.220087447326808</v>
+        <v>0.9237428481659677</v>
       </c>
       <c r="H13">
-        <v>0.8282413586221009</v>
+        <v>1.068468561576755</v>
       </c>
       <c r="I13">
-        <v>1.045606209063362</v>
+        <v>1.004322349236509</v>
       </c>
       <c r="J13">
-        <v>1.220087447326808</v>
+        <v>0.9237428481659677</v>
       </c>
       <c r="K13">
-        <v>0.8282413586221009</v>
+        <v>1.068468561576755</v>
       </c>
       <c r="L13">
-        <v>1.045606209063362</v>
+        <v>1.004322349236509</v>
       </c>
       <c r="M13">
-        <v>1.132846828195085</v>
+        <v>0.9640325987012386</v>
       </c>
       <c r="N13">
-        <v>1.132846828195085</v>
+        <v>0.9640325987012386</v>
       </c>
       <c r="O13">
-        <v>1.097385893544974</v>
+        <v>0.9621986187807402</v>
       </c>
       <c r="P13">
-        <v>1.031311671670757</v>
+        <v>0.9988445863264107</v>
       </c>
       <c r="Q13">
-        <v>1.031311671670757</v>
+        <v>0.9988445863264107</v>
       </c>
       <c r="R13">
-        <v>0.9805440934085932</v>
+        <v>1.016250580138997</v>
       </c>
       <c r="S13">
-        <v>0.9805440934085932</v>
+        <v>1.016250580138997</v>
       </c>
       <c r="T13">
-        <v>1.033977552807714</v>
+        <v>0.9932835195604001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9535375630950802</v>
+        <v>1.030667685626458</v>
       </c>
       <c r="D14">
-        <v>1.313706091969205</v>
+        <v>1.091725400510911</v>
       </c>
       <c r="E14">
-        <v>1.140148854133967</v>
+        <v>0.9351407937547739</v>
       </c>
       <c r="F14">
-        <v>0.4178431623142244</v>
+        <v>0.9968090690356859</v>
       </c>
       <c r="G14">
-        <v>1.125456940596353</v>
+        <v>0.8937851819552802</v>
       </c>
       <c r="H14">
-        <v>1.313706091969205</v>
+        <v>1.091725400510911</v>
       </c>
       <c r="I14">
-        <v>0.7870593508693956</v>
+        <v>1.010599722026678</v>
       </c>
       <c r="J14">
-        <v>1.125456940596353</v>
+        <v>0.8937851819552802</v>
       </c>
       <c r="K14">
-        <v>1.313706091969205</v>
+        <v>1.091725400510911</v>
       </c>
       <c r="L14">
-        <v>0.7870593508693956</v>
+        <v>1.010599722026678</v>
       </c>
       <c r="M14">
-        <v>0.956258145732874</v>
+        <v>0.9521924519909792</v>
       </c>
       <c r="N14">
-        <v>0.956258145732874</v>
+        <v>0.9521924519909792</v>
       </c>
       <c r="O14">
-        <v>1.017555048533238</v>
+        <v>0.9465085659122442</v>
       </c>
       <c r="P14">
-        <v>1.075407461144984</v>
+        <v>0.9987034348309566</v>
       </c>
       <c r="Q14">
-        <v>1.075407461144984</v>
+        <v>0.9987034348309566</v>
       </c>
       <c r="R14">
-        <v>1.134982118851039</v>
+        <v>1.021958926250945</v>
       </c>
       <c r="S14">
-        <v>1.134982118851039</v>
+        <v>1.021958926250945</v>
       </c>
       <c r="T14">
-        <v>0.9562919938297041</v>
+        <v>0.9931213088182979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9767818221903002</v>
+        <v>1.01132041364068</v>
       </c>
       <c r="D15">
-        <v>0.7900084152057384</v>
+        <v>1.034579631078093</v>
       </c>
       <c r="E15">
-        <v>1.052349445627135</v>
+        <v>0.9762540505321041</v>
       </c>
       <c r="F15">
-        <v>1.105634345971594</v>
+        <v>0.9966298369028969</v>
       </c>
       <c r="G15">
-        <v>1.094161018815264</v>
+        <v>0.9618243657290091</v>
       </c>
       <c r="H15">
-        <v>0.7900084152057384</v>
+        <v>1.034579631078093</v>
       </c>
       <c r="I15">
-        <v>1.06089073210089</v>
+        <v>1.003924112627595</v>
       </c>
       <c r="J15">
-        <v>1.094161018815264</v>
+        <v>0.9618243657290091</v>
       </c>
       <c r="K15">
-        <v>0.7900084152057384</v>
+        <v>1.034579631078093</v>
       </c>
       <c r="L15">
-        <v>1.06089073210089</v>
+        <v>1.003924112627595</v>
       </c>
       <c r="M15">
-        <v>1.077525875458077</v>
+        <v>0.9828742391783021</v>
       </c>
       <c r="N15">
-        <v>1.077525875458077</v>
+        <v>0.9828742391783021</v>
       </c>
       <c r="O15">
-        <v>1.069133732181096</v>
+        <v>0.9806675096295695</v>
       </c>
       <c r="P15">
-        <v>0.9816867220406307</v>
+        <v>1.000109369811566</v>
       </c>
       <c r="Q15">
-        <v>0.9816867220406307</v>
+        <v>1.000109369811566</v>
       </c>
       <c r="R15">
-        <v>0.9337671453319076</v>
+        <v>1.008726935128198</v>
       </c>
       <c r="S15">
-        <v>0.9337671453319076</v>
+        <v>1.008726935128198</v>
       </c>
       <c r="T15">
-        <v>1.01330429665182</v>
+        <v>0.9974220684183965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.212445129631646</v>
+        <v>1.021652776592006</v>
       </c>
       <c r="D16">
-        <v>1.607552749084995</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="E16">
-        <v>0.5518776442498021</v>
+        <v>0.9544102242819533</v>
       </c>
       <c r="F16">
-        <v>1.008128311243438</v>
+        <v>0.9937205851426282</v>
       </c>
       <c r="G16">
-        <v>0.2614013373910063</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="H16">
-        <v>1.607552749084995</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="I16">
-        <v>1.082614542897412</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="J16">
-        <v>0.2614013373910063</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="K16">
-        <v>1.607552749084995</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="L16">
-        <v>1.082614542897412</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="M16">
-        <v>0.6720079401442089</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="N16">
-        <v>0.6720079401442089</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="O16">
-        <v>0.6319645081794066</v>
+        <v>0.9622634442295624</v>
       </c>
       <c r="P16">
-        <v>0.9838562097911376</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="Q16">
-        <v>0.9838562097911376</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="R16">
-        <v>1.139780344614602</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="S16">
-        <v>1.139780344614602</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="T16">
-        <v>0.9540032857497165</v>
+        <v>0.9948906087290091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.157326053438646</v>
+        <v>1.041334284386639</v>
       </c>
       <c r="D17">
-        <v>1.384700378064838</v>
+        <v>1.124380691804845</v>
       </c>
       <c r="E17">
-        <v>0.6494128768528208</v>
+        <v>0.9125617657531547</v>
       </c>
       <c r="F17">
-        <v>1.153323839190768</v>
+        <v>0.9931891339080764</v>
       </c>
       <c r="G17">
-        <v>0.4428305013262628</v>
+        <v>0.8608762470505512</v>
       </c>
       <c r="H17">
-        <v>1.384700378064838</v>
+        <v>1.124380691804845</v>
       </c>
       <c r="I17">
-        <v>1.087645488928529</v>
+        <v>1.015458894132855</v>
       </c>
       <c r="J17">
-        <v>0.4428305013262628</v>
+        <v>0.8608762470505512</v>
       </c>
       <c r="K17">
-        <v>1.384700378064838</v>
+        <v>1.124380691804845</v>
       </c>
       <c r="L17">
-        <v>1.087645488928529</v>
+        <v>1.015458894132855</v>
       </c>
       <c r="M17">
-        <v>0.7652379951273958</v>
+        <v>0.938167570591703</v>
       </c>
       <c r="N17">
-        <v>0.7652379951273958</v>
+        <v>0.938167570591703</v>
       </c>
       <c r="O17">
-        <v>0.7266296223692041</v>
+        <v>0.929632302312187</v>
       </c>
       <c r="P17">
-        <v>0.971725456106543</v>
+        <v>1.000238610996084</v>
       </c>
       <c r="Q17">
-        <v>0.971725456106543</v>
+        <v>1.000238610996084</v>
       </c>
       <c r="R17">
-        <v>1.074969186596117</v>
+        <v>1.031274131198274</v>
       </c>
       <c r="S17">
-        <v>1.074969186596117</v>
+        <v>1.031274131198274</v>
       </c>
       <c r="T17">
-        <v>0.9792065229669774</v>
+        <v>0.9913001695060202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.047410581903247</v>
+        <v>1.062767084433053</v>
       </c>
       <c r="D18">
-        <v>0.9429489328409261</v>
+        <v>1.184773234761877</v>
       </c>
       <c r="E18">
-        <v>0.8446453816297866</v>
+        <v>0.8693297404758371</v>
       </c>
       <c r="F18">
-        <v>1.437002800939441</v>
+        <v>0.982677257734535</v>
       </c>
       <c r="G18">
-        <v>0.8050729317155667</v>
+        <v>0.8011675192678853</v>
       </c>
       <c r="H18">
-        <v>0.9429489328409261</v>
+        <v>1.184773234761877</v>
       </c>
       <c r="I18">
-        <v>1.096605069259949</v>
+        <v>1.033312387494273</v>
       </c>
       <c r="J18">
-        <v>0.8050729317155667</v>
+        <v>0.8011675192678853</v>
       </c>
       <c r="K18">
-        <v>0.9429489328409261</v>
+        <v>1.184773234761877</v>
       </c>
       <c r="L18">
-        <v>1.096605069259949</v>
+        <v>1.033312387494273</v>
       </c>
       <c r="M18">
-        <v>0.9508390004877577</v>
+        <v>0.917239953381079</v>
       </c>
       <c r="N18">
-        <v>0.9508390004877577</v>
+        <v>0.917239953381079</v>
       </c>
       <c r="O18">
-        <v>0.9154411275351007</v>
+        <v>0.9012698824126651</v>
       </c>
       <c r="P18">
-        <v>0.9482089779388138</v>
+        <v>1.006417713841345</v>
       </c>
       <c r="Q18">
-        <v>0.9482089779388138</v>
+        <v>1.006417713841345</v>
       </c>
       <c r="R18">
-        <v>0.9468939666643419</v>
+        <v>1.051006594071478</v>
       </c>
       <c r="S18">
-        <v>0.9468939666643419</v>
+        <v>1.051006594071478</v>
       </c>
       <c r="T18">
-        <v>1.028947616381486</v>
+        <v>0.9890045373612434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.042686006376902</v>
+        <v>1.000197740985402</v>
       </c>
       <c r="D19">
-        <v>0.8984513366387921</v>
+        <v>0.9995370804665902</v>
       </c>
       <c r="E19">
-        <v>0.8311902665886178</v>
+        <v>0.9988073954148339</v>
       </c>
       <c r="F19">
-        <v>1.55144676674477</v>
+        <v>1.004298127569101</v>
       </c>
       <c r="G19">
-        <v>0.8398907012589155</v>
+        <v>0.9987169512271267</v>
       </c>
       <c r="H19">
-        <v>0.8984513366387921</v>
+        <v>0.9995370804665902</v>
       </c>
       <c r="I19">
-        <v>1.109855264638562</v>
+        <v>1.000615987047563</v>
       </c>
       <c r="J19">
-        <v>0.8398907012589155</v>
+        <v>0.9987169512271267</v>
       </c>
       <c r="K19">
-        <v>0.8984513366387921</v>
+        <v>0.9995370804665902</v>
       </c>
       <c r="L19">
-        <v>1.109855264638562</v>
+        <v>1.000615987047563</v>
       </c>
       <c r="M19">
-        <v>0.9748729829487386</v>
+        <v>0.9996664691373447</v>
       </c>
       <c r="N19">
-        <v>0.9748729829487386</v>
+        <v>0.9996664691373447</v>
       </c>
       <c r="O19">
-        <v>0.9269787441620316</v>
+        <v>0.9993801112298412</v>
       </c>
       <c r="P19">
-        <v>0.9493991008454231</v>
+        <v>0.9996233395804266</v>
       </c>
       <c r="Q19">
-        <v>0.9493991008454231</v>
+        <v>0.9996233395804266</v>
       </c>
       <c r="R19">
-        <v>0.9366621597937653</v>
+        <v>0.9996017748019674</v>
       </c>
       <c r="S19">
-        <v>0.9366621597937653</v>
+        <v>0.9996017748019674</v>
       </c>
       <c r="T19">
-        <v>1.04558672370776</v>
+        <v>1.000362213785103</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999945272758434</v>
+        <v>1.000592092513161</v>
       </c>
       <c r="D20">
-        <v>0.9925079586246829</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="E20">
-        <v>1.00036455299345</v>
+        <v>0.9969317925085026</v>
       </c>
       <c r="F20">
-        <v>1.005698510924667</v>
+        <v>1.01006483889156</v>
       </c>
       <c r="G20">
-        <v>1.000767792840093</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="H20">
-        <v>0.9925079586246829</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="I20">
-        <v>1.003113249223175</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="J20">
-        <v>1.000767792840093</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="K20">
-        <v>0.9925079586246829</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="L20">
-        <v>1.003113249223175</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="M20">
-        <v>1.001940521031634</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="N20">
-        <v>1.001940521031634</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="O20">
-        <v>1.001415198352239</v>
+        <v>0.9982674201972564</v>
       </c>
       <c r="P20">
-        <v>0.9987963335626501</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="Q20">
-        <v>0.99879633356265</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="R20">
-        <v>0.9972242398281582</v>
+        <v>0.999214531199433</v>
       </c>
       <c r="S20">
-        <v>0.9972242398281582</v>
+        <v>0.999214531199433</v>
       </c>
       <c r="T20">
-        <v>1.000407765313652</v>
+        <v>1.000825503392287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998677539461216</v>
+        <v>1.001028698061602</v>
       </c>
       <c r="D21">
-        <v>1.009267844170715</v>
+        <v>1.000860030968047</v>
       </c>
       <c r="E21">
-        <v>0.9983071542994404</v>
+        <v>0.9954975254311549</v>
       </c>
       <c r="F21">
-        <v>0.9992688885810562</v>
+        <v>1.012092466266012</v>
       </c>
       <c r="G21">
-        <v>0.9963471665628404</v>
+        <v>0.9943265505333011</v>
       </c>
       <c r="H21">
-        <v>1.009267844170715</v>
+        <v>1.000860030968047</v>
       </c>
       <c r="I21">
-        <v>0.9961982934536813</v>
+        <v>1.001644391362686</v>
       </c>
       <c r="J21">
-        <v>0.9963471665628404</v>
+        <v>0.9943265505333011</v>
       </c>
       <c r="K21">
-        <v>1.009267844170715</v>
+        <v>1.000860030968047</v>
       </c>
       <c r="L21">
-        <v>0.9961982934536813</v>
+        <v>1.001644391362686</v>
       </c>
       <c r="M21">
-        <v>0.9962727300082608</v>
+        <v>0.9979854709479936</v>
       </c>
       <c r="N21">
-        <v>0.9962727300082608</v>
+        <v>0.9979854709479936</v>
       </c>
       <c r="O21">
-        <v>0.996950871438654</v>
+        <v>0.997156155775714</v>
       </c>
       <c r="P21">
-        <v>1.000604434729079</v>
+        <v>0.9989436576213446</v>
       </c>
       <c r="Q21">
-        <v>1.000604434729079</v>
+        <v>0.9989436576213446</v>
       </c>
       <c r="R21">
-        <v>1.002770287089488</v>
+        <v>0.9994227509580201</v>
       </c>
       <c r="S21">
-        <v>1.002770287089488</v>
+        <v>0.9994227509580201</v>
       </c>
       <c r="T21">
-        <v>0.9998761835023092</v>
+        <v>1.0009082771038</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003614109473854</v>
+        <v>1.00186882145322</v>
       </c>
       <c r="D22">
-        <v>0.9926466223289676</v>
+        <v>1.000047966829039</v>
       </c>
       <c r="E22">
-        <v>0.9931579550866466</v>
+        <v>0.9905061263809614</v>
       </c>
       <c r="F22">
-        <v>1.011501138461547</v>
+        <v>1.028927011757955</v>
       </c>
       <c r="G22">
-        <v>0.989896602707322</v>
+        <v>0.9889672999203527</v>
       </c>
       <c r="H22">
-        <v>0.9926466223289676</v>
+        <v>1.000047966829039</v>
       </c>
       <c r="I22">
-        <v>1.010456740209439</v>
+        <v>1.003792084342151</v>
       </c>
       <c r="J22">
-        <v>0.989896602707322</v>
+        <v>0.9889672999203527</v>
       </c>
       <c r="K22">
-        <v>0.9926466223289676</v>
+        <v>1.000047966829039</v>
       </c>
       <c r="L22">
-        <v>1.010456740209439</v>
+        <v>1.003792084342151</v>
       </c>
       <c r="M22">
-        <v>1.00017667145838</v>
+        <v>0.996379692131252</v>
       </c>
       <c r="N22">
-        <v>1.00017667145838</v>
+        <v>0.996379692131252</v>
       </c>
       <c r="O22">
-        <v>0.9978370993344692</v>
+        <v>0.9944218368811552</v>
       </c>
       <c r="P22">
-        <v>0.9976666550819094</v>
+        <v>0.9976024503638478</v>
       </c>
       <c r="Q22">
-        <v>0.9976666550819094</v>
+        <v>0.9976024503638478</v>
       </c>
       <c r="R22">
-        <v>0.996411646893674</v>
+        <v>0.9982138294801457</v>
       </c>
       <c r="S22">
-        <v>0.996411646893674</v>
+        <v>0.9982138294801457</v>
       </c>
       <c r="T22">
-        <v>1.000212194711296</v>
+        <v>1.002351551780613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.003601551171498</v>
+      </c>
+      <c r="D23">
+        <v>1.004135408050299</v>
+      </c>
+      <c r="E23">
+        <v>0.9838166068612098</v>
+      </c>
+      <c r="F23">
+        <v>1.042942722409196</v>
+      </c>
+      <c r="G23">
+        <v>0.9802439329215339</v>
+      </c>
+      <c r="H23">
+        <v>1.004135408050299</v>
+      </c>
+      <c r="I23">
+        <v>1.005347399530903</v>
+      </c>
+      <c r="J23">
+        <v>0.9802439329215339</v>
+      </c>
+      <c r="K23">
+        <v>1.004135408050299</v>
+      </c>
+      <c r="L23">
+        <v>1.005347399530903</v>
+      </c>
+      <c r="M23">
+        <v>0.9927956662262187</v>
+      </c>
+      <c r="N23">
+        <v>0.9927956662262187</v>
+      </c>
+      <c r="O23">
+        <v>0.9898026464378824</v>
+      </c>
+      <c r="P23">
+        <v>0.9965755801675787</v>
+      </c>
+      <c r="Q23">
+        <v>0.9965755801675787</v>
+      </c>
+      <c r="R23">
+        <v>0.9984655371382587</v>
+      </c>
+      <c r="S23">
+        <v>0.9984655371382587</v>
+      </c>
+      <c r="T23">
+        <v>1.003347936824107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9545422929170098</v>
+      </c>
+      <c r="D24">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="E24">
+        <v>1.151264810053729</v>
+      </c>
+      <c r="F24">
+        <v>0.3915885631048786</v>
+      </c>
+      <c r="G24">
+        <v>1.016720245427739</v>
+      </c>
+      <c r="H24">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="I24">
+        <v>0.8043963162955584</v>
+      </c>
+      <c r="J24">
+        <v>1.016720245427739</v>
+      </c>
+      <c r="K24">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="L24">
+        <v>0.8043963162955584</v>
+      </c>
+      <c r="M24">
+        <v>0.9105582808616488</v>
+      </c>
+      <c r="N24">
+        <v>0.9105582808616488</v>
+      </c>
+      <c r="O24">
+        <v>0.9907937905923423</v>
+      </c>
+      <c r="P24">
+        <v>1.042561216166188</v>
+      </c>
+      <c r="Q24">
+        <v>1.042561216166188</v>
+      </c>
+      <c r="R24">
+        <v>1.108562683818457</v>
+      </c>
+      <c r="S24">
+        <v>1.108562683818457</v>
+      </c>
+      <c r="T24">
+        <v>0.9375132190956968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9803024679840763</v>
+      </c>
+      <c r="D25">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="E25">
+        <v>1.026464024244751</v>
+      </c>
+      <c r="F25">
+        <v>1.103163809605186</v>
+      </c>
+      <c r="G25">
+        <v>1.220087447326808</v>
+      </c>
+      <c r="H25">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="I25">
+        <v>1.045606209063362</v>
+      </c>
+      <c r="J25">
+        <v>1.220087447326808</v>
+      </c>
+      <c r="K25">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="L25">
+        <v>1.045606209063362</v>
+      </c>
+      <c r="M25">
+        <v>1.132846828195085</v>
+      </c>
+      <c r="N25">
+        <v>1.132846828195085</v>
+      </c>
+      <c r="O25">
+        <v>1.097385893544974</v>
+      </c>
+      <c r="P25">
+        <v>1.031311671670757</v>
+      </c>
+      <c r="Q25">
+        <v>1.031311671670757</v>
+      </c>
+      <c r="R25">
+        <v>0.9805440934085932</v>
+      </c>
+      <c r="S25">
+        <v>0.9805440934085932</v>
+      </c>
+      <c r="T25">
+        <v>1.033977552807714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9535375630950802</v>
+      </c>
+      <c r="D26">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="E26">
+        <v>1.140148854133967</v>
+      </c>
+      <c r="F26">
+        <v>0.4178431623142244</v>
+      </c>
+      <c r="G26">
+        <v>1.125456940596353</v>
+      </c>
+      <c r="H26">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="I26">
+        <v>0.7870593508693956</v>
+      </c>
+      <c r="J26">
+        <v>1.125456940596353</v>
+      </c>
+      <c r="K26">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="L26">
+        <v>0.7870593508693956</v>
+      </c>
+      <c r="M26">
+        <v>0.956258145732874</v>
+      </c>
+      <c r="N26">
+        <v>0.956258145732874</v>
+      </c>
+      <c r="O26">
+        <v>1.017555048533238</v>
+      </c>
+      <c r="P26">
+        <v>1.075407461144984</v>
+      </c>
+      <c r="Q26">
+        <v>1.075407461144984</v>
+      </c>
+      <c r="R26">
+        <v>1.134982118851039</v>
+      </c>
+      <c r="S26">
+        <v>1.134982118851039</v>
+      </c>
+      <c r="T26">
+        <v>0.9562919938297041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9767818221903002</v>
+      </c>
+      <c r="D27">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="E27">
+        <v>1.052349445627135</v>
+      </c>
+      <c r="F27">
+        <v>1.105634345971594</v>
+      </c>
+      <c r="G27">
+        <v>1.094161018815264</v>
+      </c>
+      <c r="H27">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="I27">
+        <v>1.06089073210089</v>
+      </c>
+      <c r="J27">
+        <v>1.094161018815264</v>
+      </c>
+      <c r="K27">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="L27">
+        <v>1.06089073210089</v>
+      </c>
+      <c r="M27">
+        <v>1.077525875458077</v>
+      </c>
+      <c r="N27">
+        <v>1.077525875458077</v>
+      </c>
+      <c r="O27">
+        <v>1.069133732181096</v>
+      </c>
+      <c r="P27">
+        <v>0.9816867220406307</v>
+      </c>
+      <c r="Q27">
+        <v>0.9816867220406307</v>
+      </c>
+      <c r="R27">
+        <v>0.9337671453319076</v>
+      </c>
+      <c r="S27">
+        <v>0.9337671453319076</v>
+      </c>
+      <c r="T27">
+        <v>1.01330429665182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.212445129631646</v>
+      </c>
+      <c r="D28">
+        <v>1.607552749084995</v>
+      </c>
+      <c r="E28">
+        <v>0.5518776442498021</v>
+      </c>
+      <c r="F28">
+        <v>1.008128311243438</v>
+      </c>
+      <c r="G28">
+        <v>0.2614013373910063</v>
+      </c>
+      <c r="H28">
+        <v>1.607552749084995</v>
+      </c>
+      <c r="I28">
+        <v>1.082614542897412</v>
+      </c>
+      <c r="J28">
+        <v>0.2614013373910063</v>
+      </c>
+      <c r="K28">
+        <v>1.607552749084995</v>
+      </c>
+      <c r="L28">
+        <v>1.082614542897412</v>
+      </c>
+      <c r="M28">
+        <v>0.6720079401442089</v>
+      </c>
+      <c r="N28">
+        <v>0.6720079401442089</v>
+      </c>
+      <c r="O28">
+        <v>0.6319645081794066</v>
+      </c>
+      <c r="P28">
+        <v>0.9838562097911376</v>
+      </c>
+      <c r="Q28">
+        <v>0.9838562097911376</v>
+      </c>
+      <c r="R28">
+        <v>1.139780344614602</v>
+      </c>
+      <c r="S28">
+        <v>1.139780344614602</v>
+      </c>
+      <c r="T28">
+        <v>0.9540032857497165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.157326053438646</v>
+      </c>
+      <c r="D29">
+        <v>1.384700378064838</v>
+      </c>
+      <c r="E29">
+        <v>0.6494128768528208</v>
+      </c>
+      <c r="F29">
+        <v>1.153323839190768</v>
+      </c>
+      <c r="G29">
+        <v>0.4428305013262628</v>
+      </c>
+      <c r="H29">
+        <v>1.384700378064838</v>
+      </c>
+      <c r="I29">
+        <v>1.087645488928529</v>
+      </c>
+      <c r="J29">
+        <v>0.4428305013262628</v>
+      </c>
+      <c r="K29">
+        <v>1.384700378064838</v>
+      </c>
+      <c r="L29">
+        <v>1.087645488928529</v>
+      </c>
+      <c r="M29">
+        <v>0.7652379951273958</v>
+      </c>
+      <c r="N29">
+        <v>0.7652379951273958</v>
+      </c>
+      <c r="O29">
+        <v>0.7266296223692041</v>
+      </c>
+      <c r="P29">
+        <v>0.971725456106543</v>
+      </c>
+      <c r="Q29">
+        <v>0.971725456106543</v>
+      </c>
+      <c r="R29">
+        <v>1.074969186596117</v>
+      </c>
+      <c r="S29">
+        <v>1.074969186596117</v>
+      </c>
+      <c r="T29">
+        <v>0.9792065229669774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.047410581903247</v>
+      </c>
+      <c r="D30">
+        <v>0.9429489328409261</v>
+      </c>
+      <c r="E30">
+        <v>0.8446453816297866</v>
+      </c>
+      <c r="F30">
+        <v>1.437002800939441</v>
+      </c>
+      <c r="G30">
+        <v>0.8050729317155667</v>
+      </c>
+      <c r="H30">
+        <v>0.9429489328409261</v>
+      </c>
+      <c r="I30">
+        <v>1.096605069259949</v>
+      </c>
+      <c r="J30">
+        <v>0.8050729317155667</v>
+      </c>
+      <c r="K30">
+        <v>0.9429489328409261</v>
+      </c>
+      <c r="L30">
+        <v>1.096605069259949</v>
+      </c>
+      <c r="M30">
+        <v>0.9508390004877577</v>
+      </c>
+      <c r="N30">
+        <v>0.9508390004877577</v>
+      </c>
+      <c r="O30">
+        <v>0.9154411275351007</v>
+      </c>
+      <c r="P30">
+        <v>0.9482089779388138</v>
+      </c>
+      <c r="Q30">
+        <v>0.9482089779388138</v>
+      </c>
+      <c r="R30">
+        <v>0.9468939666643419</v>
+      </c>
+      <c r="S30">
+        <v>0.9468939666643419</v>
+      </c>
+      <c r="T30">
+        <v>1.028947616381486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.042686006376902</v>
+      </c>
+      <c r="D31">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="E31">
+        <v>0.8311902665886178</v>
+      </c>
+      <c r="F31">
+        <v>1.55144676674477</v>
+      </c>
+      <c r="G31">
+        <v>0.8398907012589155</v>
+      </c>
+      <c r="H31">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="I31">
+        <v>1.109855264638562</v>
+      </c>
+      <c r="J31">
+        <v>0.8398907012589155</v>
+      </c>
+      <c r="K31">
+        <v>0.8984513366387921</v>
+      </c>
+      <c r="L31">
+        <v>1.109855264638562</v>
+      </c>
+      <c r="M31">
+        <v>0.9748729829487386</v>
+      </c>
+      <c r="N31">
+        <v>0.9748729829487386</v>
+      </c>
+      <c r="O31">
+        <v>0.9269787441620316</v>
+      </c>
+      <c r="P31">
+        <v>0.9493991008454231</v>
+      </c>
+      <c r="Q31">
+        <v>0.9493991008454231</v>
+      </c>
+      <c r="R31">
+        <v>0.9366621597937653</v>
+      </c>
+      <c r="S31">
+        <v>0.9366621597937653</v>
+      </c>
+      <c r="T31">
+        <v>1.04558672370776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.265754364383561</v>
+      </c>
+      <c r="D32">
+        <v>1.852386437534247</v>
+      </c>
+      <c r="E32">
+        <v>0.4530022798630136</v>
+      </c>
+      <c r="F32">
+        <v>0.8560420383561644</v>
+      </c>
+      <c r="G32">
+        <v>0.07872620224657531</v>
+      </c>
+      <c r="H32">
+        <v>1.852386437534247</v>
+      </c>
+      <c r="I32">
+        <v>1.068760923287671</v>
+      </c>
+      <c r="J32">
+        <v>0.07872620224657531</v>
+      </c>
+      <c r="K32">
+        <v>1.852386437534247</v>
+      </c>
+      <c r="L32">
+        <v>1.068760923287671</v>
+      </c>
+      <c r="M32">
+        <v>0.5737435627671233</v>
+      </c>
+      <c r="N32">
+        <v>0.5737435627671233</v>
+      </c>
+      <c r="O32">
+        <v>0.5334964684657534</v>
+      </c>
+      <c r="P32">
+        <v>0.9999578543561647</v>
+      </c>
+      <c r="Q32">
+        <v>0.9999578543561647</v>
+      </c>
+      <c r="R32">
+        <v>1.213065000150685</v>
+      </c>
+      <c r="S32">
+        <v>1.213065000150685</v>
+      </c>
+      <c r="T32">
+        <v>0.9291120409452057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.014608127894737</v>
+      </c>
+      <c r="D33">
+        <v>0.741493452105263</v>
+      </c>
+      <c r="E33">
+        <v>0.7807706016842105</v>
+      </c>
+      <c r="F33">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="G33">
+        <v>1.164093971978947</v>
+      </c>
+      <c r="H33">
+        <v>0.741493452105263</v>
+      </c>
+      <c r="I33">
+        <v>1.17140193</v>
+      </c>
+      <c r="J33">
+        <v>1.164093971978947</v>
+      </c>
+      <c r="K33">
+        <v>0.741493452105263</v>
+      </c>
+      <c r="L33">
+        <v>1.17140193</v>
+      </c>
+      <c r="M33">
+        <v>1.167747950989474</v>
+      </c>
+      <c r="N33">
+        <v>1.167747950989474</v>
+      </c>
+      <c r="O33">
+        <v>1.038755501221053</v>
+      </c>
+      <c r="P33">
+        <v>1.02566311802807</v>
+      </c>
+      <c r="Q33">
+        <v>1.02566311802807</v>
+      </c>
+      <c r="R33">
+        <v>0.9546207015473682</v>
+      </c>
+      <c r="S33">
+        <v>0.9546207015473682</v>
+      </c>
+      <c r="T33">
+        <v>1.130741852803509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.080359445789474</v>
+      </c>
+      <c r="D34">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="E34">
+        <v>0.8303641778947368</v>
+      </c>
+      <c r="F34">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="G34">
+        <v>0.3933302182947369</v>
+      </c>
+      <c r="H34">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="I34">
+        <v>1.057789206315789</v>
+      </c>
+      <c r="J34">
+        <v>0.3933302182947369</v>
+      </c>
+      <c r="K34">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="L34">
+        <v>1.057789206315789</v>
+      </c>
+      <c r="M34">
+        <v>0.7255597123052631</v>
+      </c>
+      <c r="N34">
+        <v>0.7255597123052631</v>
+      </c>
+      <c r="O34">
+        <v>0.7604945341684211</v>
+      </c>
+      <c r="P34">
+        <v>0.8761622520631578</v>
+      </c>
+      <c r="Q34">
+        <v>0.8761622520631578</v>
+      </c>
+      <c r="R34">
+        <v>0.9514635219421053</v>
+      </c>
+      <c r="S34">
+        <v>0.9514635219421053</v>
+      </c>
+      <c r="T34">
+        <v>0.9503009989438596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.086118455708456</v>
+      </c>
+      <c r="D35">
+        <v>0.5747060909268028</v>
+      </c>
+      <c r="E35">
+        <v>0.4392787722217252</v>
+      </c>
+      <c r="F35">
+        <v>3.301060572537877</v>
+      </c>
+      <c r="G35">
+        <v>0.4066202398335227</v>
+      </c>
+      <c r="H35">
+        <v>0.5747060909268028</v>
+      </c>
+      <c r="I35">
+        <v>1.349734541292833</v>
+      </c>
+      <c r="J35">
+        <v>0.4066202398335227</v>
+      </c>
+      <c r="K35">
+        <v>0.5747060909268028</v>
+      </c>
+      <c r="L35">
+        <v>1.349734541292833</v>
+      </c>
+      <c r="M35">
+        <v>0.8781773905631778</v>
+      </c>
+      <c r="N35">
+        <v>0.8781773905631778</v>
+      </c>
+      <c r="O35">
+        <v>0.7318778511160269</v>
+      </c>
+      <c r="P35">
+        <v>0.7770202906843862</v>
+      </c>
+      <c r="Q35">
+        <v>0.7770202906843862</v>
+      </c>
+      <c r="R35">
+        <v>0.7264417407449903</v>
+      </c>
+      <c r="S35">
+        <v>0.7264417407449903</v>
+      </c>
+      <c r="T35">
+        <v>1.192919778753536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999945272758434</v>
+      </c>
+      <c r="D36">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="E36">
+        <v>1.00036455299345</v>
+      </c>
+      <c r="F36">
+        <v>1.005698510924667</v>
+      </c>
+      <c r="G36">
+        <v>1.000767792840093</v>
+      </c>
+      <c r="H36">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="I36">
+        <v>1.003113249223175</v>
+      </c>
+      <c r="J36">
+        <v>1.000767792840093</v>
+      </c>
+      <c r="K36">
+        <v>0.9925079586246829</v>
+      </c>
+      <c r="L36">
+        <v>1.003113249223175</v>
+      </c>
+      <c r="M36">
+        <v>1.001940521031634</v>
+      </c>
+      <c r="N36">
+        <v>1.001940521031634</v>
+      </c>
+      <c r="O36">
+        <v>1.001415198352239</v>
+      </c>
+      <c r="P36">
+        <v>0.9987963335626501</v>
+      </c>
+      <c r="Q36">
+        <v>0.99879633356265</v>
+      </c>
+      <c r="R36">
+        <v>0.9972242398281582</v>
+      </c>
+      <c r="S36">
+        <v>0.9972242398281582</v>
+      </c>
+      <c r="T36">
+        <v>1.000407765313652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998677539461216</v>
+      </c>
+      <c r="D37">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="E37">
+        <v>0.9983071542994404</v>
+      </c>
+      <c r="F37">
+        <v>0.9992688885810562</v>
+      </c>
+      <c r="G37">
+        <v>0.9963471665628404</v>
+      </c>
+      <c r="H37">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="I37">
+        <v>0.9961982934536813</v>
+      </c>
+      <c r="J37">
+        <v>0.9963471665628404</v>
+      </c>
+      <c r="K37">
+        <v>1.009267844170715</v>
+      </c>
+      <c r="L37">
+        <v>0.9961982934536813</v>
+      </c>
+      <c r="M37">
+        <v>0.9962727300082608</v>
+      </c>
+      <c r="N37">
+        <v>0.9962727300082608</v>
+      </c>
+      <c r="O37">
+        <v>0.996950871438654</v>
+      </c>
+      <c r="P37">
+        <v>1.000604434729079</v>
+      </c>
+      <c r="Q37">
+        <v>1.000604434729079</v>
+      </c>
+      <c r="R37">
+        <v>1.002770287089488</v>
+      </c>
+      <c r="S37">
+        <v>1.002770287089488</v>
+      </c>
+      <c r="T37">
+        <v>0.9998761835023092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.003614109473854</v>
+      </c>
+      <c r="D38">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="E38">
+        <v>0.9931579550866466</v>
+      </c>
+      <c r="F38">
+        <v>1.011501138461547</v>
+      </c>
+      <c r="G38">
+        <v>0.989896602707322</v>
+      </c>
+      <c r="H38">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="I38">
+        <v>1.010456740209439</v>
+      </c>
+      <c r="J38">
+        <v>0.989896602707322</v>
+      </c>
+      <c r="K38">
+        <v>0.9926466223289676</v>
+      </c>
+      <c r="L38">
+        <v>1.010456740209439</v>
+      </c>
+      <c r="M38">
+        <v>1.00017667145838</v>
+      </c>
+      <c r="N38">
+        <v>1.00017667145838</v>
+      </c>
+      <c r="O38">
+        <v>0.9978370993344692</v>
+      </c>
+      <c r="P38">
+        <v>0.9976666550819094</v>
+      </c>
+      <c r="Q38">
+        <v>0.9976666550819094</v>
+      </c>
+      <c r="R38">
+        <v>0.996411646893674</v>
+      </c>
+      <c r="S38">
+        <v>0.996411646893674</v>
+      </c>
+      <c r="T38">
+        <v>1.000212194711296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.013482158644606</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9540787902493112</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9847997781540779</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.027895961864632</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9726942075478164</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9540787902493112</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.037185101399756</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9726942075478164</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9540787902493112</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.037185101399756</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.004939654473787</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.004939654473787</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.998226362367217</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9879860330656282</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9879860330656282</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9795092223615489</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9795092223615489</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9983559996433667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.033385143171102</v>
+      </c>
+      <c r="D40">
+        <v>0.9573770491022252</v>
+      </c>
+      <c r="E40">
+        <v>0.9339520184142869</v>
+      </c>
+      <c r="F40">
+        <v>1.114979868704176</v>
+      </c>
+      <c r="G40">
+        <v>0.8977528515851234</v>
+      </c>
+      <c r="H40">
+        <v>0.9573770491022252</v>
+      </c>
+      <c r="I40">
+        <v>1.069113063312361</v>
+      </c>
+      <c r="J40">
+        <v>0.8977528515851234</v>
+      </c>
+      <c r="K40">
+        <v>0.9573770491022252</v>
+      </c>
+      <c r="L40">
+        <v>1.069113063312361</v>
+      </c>
+      <c r="M40">
+        <v>0.9834329574487422</v>
+      </c>
+      <c r="N40">
+        <v>0.9834329574487422</v>
+      </c>
+      <c r="O40">
+        <v>0.9669393111039236</v>
+      </c>
+      <c r="P40">
+        <v>0.9747476546665698</v>
+      </c>
+      <c r="Q40">
+        <v>0.9747476546665698</v>
+      </c>
+      <c r="R40">
+        <v>0.9704050032754836</v>
+      </c>
+      <c r="S40">
+        <v>0.9704050032754836</v>
+      </c>
+      <c r="T40">
+        <v>1.001093332381546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9878709603651973</v>
+      </c>
+      <c r="D41">
+        <v>1.020652203050044</v>
+      </c>
+      <c r="E41">
+        <v>1.036762229067613</v>
+      </c>
+      <c r="F41">
+        <v>0.900840417542156</v>
+      </c>
+      <c r="G41">
+        <v>1.024630117647838</v>
+      </c>
+      <c r="H41">
+        <v>1.020652203050044</v>
+      </c>
+      <c r="I41">
+        <v>0.9746169025333978</v>
+      </c>
+      <c r="J41">
+        <v>1.024630117647838</v>
+      </c>
+      <c r="K41">
+        <v>1.020652203050044</v>
+      </c>
+      <c r="L41">
+        <v>0.9746169025333978</v>
+      </c>
+      <c r="M41">
+        <v>0.9996235100906179</v>
+      </c>
+      <c r="N41">
+        <v>0.9996235100906179</v>
+      </c>
+      <c r="O41">
+        <v>1.01200308308295</v>
+      </c>
+      <c r="P41">
+        <v>1.006633074410426</v>
+      </c>
+      <c r="Q41">
+        <v>1.006633074410427</v>
+      </c>
+      <c r="R41">
+        <v>1.010137856570331</v>
+      </c>
+      <c r="S41">
+        <v>1.010137856570331</v>
+      </c>
+      <c r="T41">
+        <v>0.9908954717010411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.128054980661709</v>
+      </c>
+      <c r="D42">
+        <v>1.266993623294006</v>
+      </c>
+      <c r="E42">
+        <v>0.7396724817185041</v>
+      </c>
+      <c r="F42">
+        <v>1.117274422909181</v>
+      </c>
+      <c r="G42">
+        <v>0.4829512646043722</v>
+      </c>
+      <c r="H42">
+        <v>1.266993623294006</v>
+      </c>
+      <c r="I42">
+        <v>1.07151004130149</v>
+      </c>
+      <c r="J42">
+        <v>0.4829512646043722</v>
+      </c>
+      <c r="K42">
+        <v>1.266993623294006</v>
+      </c>
+      <c r="L42">
+        <v>1.07151004130149</v>
+      </c>
+      <c r="M42">
+        <v>0.777230652952931</v>
+      </c>
+      <c r="N42">
+        <v>0.777230652952931</v>
+      </c>
+      <c r="O42">
+        <v>0.7647112625414554</v>
+      </c>
+      <c r="P42">
+        <v>0.9404849763999561</v>
+      </c>
+      <c r="Q42">
+        <v>0.9404849763999561</v>
+      </c>
+      <c r="R42">
+        <v>1.022112138123469</v>
+      </c>
+      <c r="S42">
+        <v>1.022112138123469</v>
+      </c>
+      <c r="T42">
+        <v>0.967742802414877</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034579631078093</v>
+        <v>1.000592092513161</v>
       </c>
       <c r="D3">
-        <v>0.9618243657290091</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="E3">
-        <v>1.003924112627595</v>
+        <v>0.9969317925085026</v>
       </c>
       <c r="F3">
-        <v>1.034579631078093</v>
+        <v>1.01006483889156</v>
       </c>
       <c r="G3">
-        <v>0.9966298369028969</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="H3">
-        <v>0.9762540505321041</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="I3">
-        <v>1.01132041364068</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="J3">
-        <v>0.9618243657290091</v>
+        <v>0.996472601980726</v>
       </c>
       <c r="K3">
-        <v>1.034579631078093</v>
+        <v>0.9994938283572328</v>
       </c>
       <c r="L3">
-        <v>1.003924112627595</v>
+        <v>1.001397866102541</v>
       </c>
       <c r="M3">
-        <v>0.9828742391783021</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="N3">
-        <v>0.9828742391783021</v>
+        <v>0.9989352340416333</v>
       </c>
       <c r="O3">
-        <v>0.9806675096295695</v>
+        <v>0.9982674201972564</v>
       </c>
       <c r="P3">
-        <v>1.000109369811566</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="Q3">
-        <v>1.000109369811566</v>
+        <v>0.9991214321468331</v>
       </c>
       <c r="R3">
-        <v>1.008726935128198</v>
+        <v>0.999214531199433</v>
       </c>
       <c r="S3">
-        <v>1.008726935128198</v>
+        <v>0.999214531199433</v>
       </c>
       <c r="T3">
-        <v>0.9974220684183965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000825503392287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.067179957950734</v>
+        <v>1.033385143171102</v>
       </c>
       <c r="D4">
-        <v>0.9254447444730067</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="E4">
-        <v>1.006935363933727</v>
+        <v>0.9339520184142869</v>
       </c>
       <c r="F4">
-        <v>1.067179957950734</v>
+        <v>1.114979868704176</v>
       </c>
       <c r="G4">
-        <v>0.9937205851426282</v>
+        <v>0.8977528515851234</v>
       </c>
       <c r="H4">
-        <v>0.9544102242819533</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="I4">
-        <v>1.021652776592006</v>
+        <v>1.069113063312361</v>
       </c>
       <c r="J4">
-        <v>0.9254447444730067</v>
+        <v>0.8977528515851234</v>
       </c>
       <c r="K4">
-        <v>1.067179957950734</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="L4">
-        <v>1.006935363933727</v>
+        <v>1.069113063312361</v>
       </c>
       <c r="M4">
-        <v>0.9661900542033667</v>
+        <v>0.9834329574487422</v>
       </c>
       <c r="N4">
-        <v>0.9661900542033667</v>
+        <v>0.9834329574487422</v>
       </c>
       <c r="O4">
-        <v>0.9622634442295622</v>
+        <v>0.9669393111039236</v>
       </c>
       <c r="P4">
-        <v>0.999853355452489</v>
+        <v>0.9747476546665698</v>
       </c>
       <c r="Q4">
-        <v>0.999853355452489</v>
+        <v>0.9747476546665698</v>
       </c>
       <c r="R4">
-        <v>1.01668500607705</v>
+        <v>0.9704050032754836</v>
       </c>
       <c r="S4">
-        <v>1.01668500607705</v>
+        <v>0.9704050032754836</v>
       </c>
       <c r="T4">
-        <v>0.9948906087290091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.001093332381546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.124380691804845</v>
+        <v>1.054343240079247</v>
       </c>
       <c r="D5">
-        <v>0.8608762470505512</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="E5">
-        <v>1.015458894132855</v>
+        <v>0.8163665504560521</v>
       </c>
       <c r="F5">
-        <v>1.124380691804845</v>
+        <v>1.516998534180114</v>
       </c>
       <c r="G5">
-        <v>0.9931891339080764</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="H5">
-        <v>0.9125617657531547</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="I5">
-        <v>1.041334284386639</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="J5">
-        <v>0.8608762470505512</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="K5">
-        <v>1.124380691804845</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="L5">
-        <v>1.015458894132855</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="M5">
-        <v>0.938167570591703</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="N5">
-        <v>0.938167570591703</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="O5">
-        <v>0.929632302312187</v>
+        <v>0.8969523077126323</v>
       </c>
       <c r="P5">
-        <v>1.000238610996084</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="Q5">
-        <v>1.000238610996084</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="R5">
-        <v>1.031274131198274</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="S5">
-        <v>1.031274131198274</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="T5">
-        <v>0.9913001695060202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.034167123389457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.184773234761877</v>
+        <v>1.086118455708456</v>
       </c>
       <c r="D6">
-        <v>0.8011675192678853</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="E6">
-        <v>1.033312387494273</v>
+        <v>0.4392787722217252</v>
       </c>
       <c r="F6">
-        <v>1.184773234761877</v>
+        <v>3.301060572537877</v>
       </c>
       <c r="G6">
-        <v>0.9826772577345348</v>
+        <v>0.4066202398335227</v>
       </c>
       <c r="H6">
-        <v>0.8693297404758371</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="I6">
-        <v>1.062767084433053</v>
+        <v>1.349734541292833</v>
       </c>
       <c r="J6">
-        <v>0.8011675192678853</v>
+        <v>0.4066202398335227</v>
       </c>
       <c r="K6">
-        <v>1.184773234761877</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="L6">
-        <v>1.033312387494273</v>
+        <v>1.349734541292833</v>
       </c>
       <c r="M6">
-        <v>0.917239953381079</v>
+        <v>0.8781773905631778</v>
       </c>
       <c r="N6">
-        <v>0.917239953381079</v>
+        <v>0.8781773905631778</v>
       </c>
       <c r="O6">
-        <v>0.9012698824126651</v>
+        <v>0.7318778511160269</v>
       </c>
       <c r="P6">
-        <v>1.006417713841345</v>
+        <v>0.7770202906843862</v>
       </c>
       <c r="Q6">
-        <v>1.006417713841345</v>
+        <v>0.7770202906843862</v>
       </c>
       <c r="R6">
-        <v>1.051006594071478</v>
+        <v>0.7264417407449903</v>
       </c>
       <c r="S6">
-        <v>1.051006594071478</v>
+        <v>0.7264417407449903</v>
       </c>
       <c r="T6">
-        <v>0.9890045373612432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.192919778753536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995370804665902</v>
+        <v>1.012411069978353</v>
       </c>
       <c r="D7">
-        <v>0.9987169512271277</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="E7">
-        <v>1.000615987047563</v>
+        <v>0.974792843985537</v>
       </c>
       <c r="F7">
-        <v>0.9995370804665902</v>
+        <v>0.9962065588078522</v>
       </c>
       <c r="G7">
-        <v>1.004298127569101</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="H7">
-        <v>0.9988073954148344</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="I7">
-        <v>1.000197740985402</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="J7">
-        <v>0.9987169512271277</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="K7">
-        <v>0.9995370804665902</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="L7">
-        <v>1.000615987047563</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="M7">
-        <v>0.9996664691373452</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="N7">
-        <v>0.9996664691373452</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="O7">
-        <v>0.9993801112298417</v>
+        <v>0.9784237124448292</v>
       </c>
       <c r="P7">
-        <v>0.9996233395804269</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="Q7">
-        <v>0.9996233395804269</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="R7">
-        <v>0.9996017748019677</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="S7">
-        <v>0.9996017748019677</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="T7">
-        <v>1.000362213785103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9967336490242366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994938283572331</v>
+        <v>0.9998677539461216</v>
       </c>
       <c r="D8">
-        <v>0.9964726019807257</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="E8">
-        <v>1.00139786610254</v>
+        <v>0.9983071542994404</v>
       </c>
       <c r="F8">
-        <v>0.9994938283572331</v>
+        <v>0.9992688885810562</v>
       </c>
       <c r="G8">
-        <v>1.010064838891559</v>
+        <v>0.9963471665628404</v>
       </c>
       <c r="H8">
-        <v>0.9969317925085027</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="I8">
-        <v>1.000592092513161</v>
+        <v>0.9961982934536813</v>
       </c>
       <c r="J8">
-        <v>0.9964726019807257</v>
+        <v>0.9963471665628404</v>
       </c>
       <c r="K8">
-        <v>0.9994938283572331</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="L8">
-        <v>1.00139786610254</v>
+        <v>0.9961982934536813</v>
       </c>
       <c r="M8">
-        <v>0.998935234041633</v>
+        <v>0.9962727300082608</v>
       </c>
       <c r="N8">
-        <v>0.998935234041633</v>
+        <v>0.9962727300082608</v>
       </c>
       <c r="O8">
-        <v>0.9982674201972562</v>
+        <v>0.996950871438654</v>
       </c>
       <c r="P8">
-        <v>0.999121432146833</v>
+        <v>1.000604434729079</v>
       </c>
       <c r="Q8">
-        <v>0.999121432146833</v>
+        <v>1.000604434729079</v>
       </c>
       <c r="R8">
-        <v>0.999214531199433</v>
+        <v>1.002770287089488</v>
       </c>
       <c r="S8">
-        <v>0.999214531199433</v>
+        <v>1.002770287089488</v>
       </c>
       <c r="T8">
-        <v>1.000825503392287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9998761835023092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000860030968047</v>
+        <v>1.021652776592006</v>
       </c>
       <c r="D9">
-        <v>0.9943265505333011</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="E9">
-        <v>1.001644391362686</v>
+        <v>0.9544102242819533</v>
       </c>
       <c r="F9">
-        <v>1.000860030968047</v>
+        <v>0.9937205851426282</v>
       </c>
       <c r="G9">
-        <v>1.012092466266012</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="H9">
-        <v>0.9954975254311549</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="I9">
-        <v>1.001028698061602</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="J9">
-        <v>0.9943265505333011</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="K9">
-        <v>1.000860030968047</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="L9">
-        <v>1.001644391362686</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="M9">
-        <v>0.9979854709479936</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="N9">
-        <v>0.9979854709479936</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="O9">
-        <v>0.997156155775714</v>
+        <v>0.9622634442295624</v>
       </c>
       <c r="P9">
-        <v>0.9989436576213446</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="Q9">
-        <v>0.9989436576213446</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="R9">
-        <v>0.9994227509580201</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="S9">
-        <v>0.9994227509580201</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="T9">
-        <v>1.0009082771038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9948906087290091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000047966829039</v>
+        <v>1.084985233941614</v>
       </c>
       <c r="D10">
-        <v>0.9889672999203527</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="E10">
-        <v>1.003792084342151</v>
+        <v>0.4298847149204158</v>
       </c>
       <c r="F10">
-        <v>1.000047966829039</v>
+        <v>3.355672377646925</v>
       </c>
       <c r="G10">
-        <v>1.028927011757955</v>
+        <v>0.4191893411379741</v>
       </c>
       <c r="H10">
-        <v>0.9905061263809614</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="I10">
-        <v>1.00186882145322</v>
+        <v>1.355014705613093</v>
       </c>
       <c r="J10">
-        <v>0.9889672999203527</v>
+        <v>0.4191893411379741</v>
       </c>
       <c r="K10">
-        <v>1.000047966829039</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="L10">
-        <v>1.003792084342151</v>
+        <v>1.355014705613093</v>
       </c>
       <c r="M10">
-        <v>0.996379692131252</v>
+        <v>0.8871020233755337</v>
       </c>
       <c r="N10">
-        <v>0.996379692131252</v>
+        <v>0.8871020233755337</v>
       </c>
       <c r="O10">
-        <v>0.9944218368811552</v>
+        <v>0.7346962538904944</v>
       </c>
       <c r="P10">
-        <v>0.9976024503638478</v>
+        <v>0.7780171631486641</v>
       </c>
       <c r="Q10">
-        <v>0.9976024503638478</v>
+        <v>0.778017163148664</v>
       </c>
       <c r="R10">
-        <v>0.9982138294801457</v>
+        <v>0.7234747330352291</v>
       </c>
       <c r="S10">
-        <v>0.9982138294801457</v>
+        <v>0.7234747330352291</v>
       </c>
       <c r="T10">
-        <v>1.002351551780613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.200765635992491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004135408050299</v>
+        <v>1.045369430301263</v>
       </c>
       <c r="D11">
-        <v>0.9802439329215339</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="E11">
-        <v>1.005347399530903</v>
+        <v>0.9347055293416753</v>
       </c>
       <c r="F11">
-        <v>1.004135408050299</v>
+        <v>0.9864506825013898</v>
       </c>
       <c r="G11">
-        <v>1.042942722409196</v>
+        <v>0.8223862314977722</v>
       </c>
       <c r="H11">
-        <v>0.9838166068612095</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="I11">
-        <v>1.003601551171498</v>
+        <v>1.05137726711954</v>
       </c>
       <c r="J11">
-        <v>0.9802439329215339</v>
+        <v>0.8223862314977722</v>
       </c>
       <c r="K11">
-        <v>1.004135408050299</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="L11">
-        <v>1.005347399530903</v>
+        <v>1.05137726711954</v>
       </c>
       <c r="M11">
-        <v>0.9927956662262187</v>
+        <v>0.9368817493086559</v>
       </c>
       <c r="N11">
-        <v>0.9927956662262187</v>
+        <v>0.9368817493086559</v>
       </c>
       <c r="O11">
-        <v>0.9898026464378823</v>
+        <v>0.9361563426529956</v>
       </c>
       <c r="P11">
-        <v>0.9965755801675787</v>
+        <v>0.9689811441475141</v>
       </c>
       <c r="Q11">
-        <v>0.9965755801675787</v>
+        <v>0.9689811441475141</v>
       </c>
       <c r="R11">
-        <v>0.9984655371382587</v>
+        <v>0.9850308415669431</v>
       </c>
       <c r="S11">
-        <v>0.9984655371382587</v>
+        <v>0.9850308415669431</v>
       </c>
       <c r="T11">
-        <v>1.003347936824107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9789115124311452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.306567086775266</v>
+        <v>1.039516939736841</v>
       </c>
       <c r="D12">
-        <v>1.016720245427739</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="E12">
-        <v>0.8043963162955586</v>
+        <v>0.8171662445294766</v>
       </c>
       <c r="F12">
-        <v>1.306567086775266</v>
+        <v>1.66861615307579</v>
       </c>
       <c r="G12">
-        <v>0.3915885631048789</v>
+        <v>0.8432034167804205</v>
       </c>
       <c r="H12">
-        <v>1.151264810053729</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="I12">
-        <v>0.9545422929170096</v>
+        <v>1.127469580473687</v>
       </c>
       <c r="J12">
-        <v>1.016720245427739</v>
+        <v>0.8432034167804205</v>
       </c>
       <c r="K12">
-        <v>1.306567086775266</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="L12">
-        <v>0.8043963162955586</v>
+        <v>1.127469580473687</v>
       </c>
       <c r="M12">
-        <v>0.9105582808616488</v>
+        <v>0.9853364986270536</v>
       </c>
       <c r="N12">
-        <v>0.9105582808616488</v>
+        <v>0.9853364986270536</v>
       </c>
       <c r="O12">
-        <v>0.9907937905923422</v>
+        <v>0.9292797472611946</v>
       </c>
       <c r="P12">
-        <v>1.042561216166188</v>
+        <v>0.9416535364285622</v>
       </c>
       <c r="Q12">
-        <v>1.042561216166188</v>
+        <v>0.9416535364285622</v>
       </c>
       <c r="R12">
-        <v>1.108562683818457</v>
+        <v>0.9198120553293165</v>
       </c>
       <c r="S12">
-        <v>1.108562683818457</v>
+        <v>0.9198120553293165</v>
       </c>
       <c r="T12">
-        <v>0.9375132190956968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.058376657771299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8282413586221009</v>
+        <v>0.9416256317903602</v>
       </c>
       <c r="D13">
-        <v>1.220087447326808</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="E13">
-        <v>1.045606209063363</v>
+        <v>1.122970895831006</v>
       </c>
       <c r="F13">
-        <v>0.8282413586221009</v>
+        <v>0.8047403812846353</v>
       </c>
       <c r="G13">
-        <v>1.103163809605186</v>
+        <v>1.281122968358332</v>
       </c>
       <c r="H13">
-        <v>1.02646402424475</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="I13">
-        <v>0.9803024679840762</v>
+        <v>0.9213742309576207</v>
       </c>
       <c r="J13">
-        <v>1.220087447326808</v>
+        <v>1.281122968358332</v>
       </c>
       <c r="K13">
-        <v>0.8282413586221009</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="L13">
-        <v>1.045606209063363</v>
+        <v>0.9213742309576207</v>
       </c>
       <c r="M13">
-        <v>1.132846828195085</v>
+        <v>1.101248599657976</v>
       </c>
       <c r="N13">
-        <v>1.132846828195085</v>
+        <v>1.101248599657976</v>
       </c>
       <c r="O13">
-        <v>1.097385893544974</v>
+        <v>1.108489365048986</v>
       </c>
       <c r="P13">
-        <v>1.031311671670757</v>
+        <v>1.062185255166981</v>
       </c>
       <c r="Q13">
-        <v>1.031311671670757</v>
+        <v>1.062185255166981</v>
       </c>
       <c r="R13">
-        <v>0.9805440934085932</v>
+        <v>1.042653582921483</v>
       </c>
       <c r="S13">
-        <v>0.9805440934085932</v>
+        <v>1.042653582921483</v>
       </c>
       <c r="T13">
-        <v>1.033977552807714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.009315445734491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.313706091969205</v>
+        <v>1.1262586</v>
       </c>
       <c r="D14">
-        <v>1.125456940596353</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E14">
-        <v>0.7870593508693956</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="F14">
-        <v>1.313706091969205</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="G14">
-        <v>0.4178431623142245</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H14">
-        <v>1.140148854133967</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="I14">
-        <v>0.9535375630950803</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="J14">
-        <v>1.125456940596353</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="K14">
-        <v>1.313706091969205</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L14">
-        <v>0.7870593508693956</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M14">
-        <v>0.956258145732874</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N14">
-        <v>0.956258145732874</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O14">
-        <v>1.017555048533238</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P14">
-        <v>1.075407461144984</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q14">
-        <v>1.075407461144984</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R14">
-        <v>1.134982118851039</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S14">
-        <v>1.134982118851039</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T14">
-        <v>0.9562919938297041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.356717810033333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7900084152057386</v>
+        <v>1.134</v>
       </c>
       <c r="D15">
-        <v>1.094161018815264</v>
+        <v>3.4428622</v>
       </c>
       <c r="E15">
-        <v>1.06089073210089</v>
+        <v>0.39134565</v>
       </c>
       <c r="F15">
-        <v>0.7900084152057386</v>
+        <v>0.21380688</v>
       </c>
       <c r="G15">
-        <v>1.105634345971594</v>
+        <v>0.023300756</v>
       </c>
       <c r="H15">
-        <v>1.052349445627135</v>
+        <v>3.4428622</v>
       </c>
       <c r="I15">
-        <v>0.9767818221903003</v>
+        <v>0.42160412</v>
       </c>
       <c r="J15">
-        <v>1.094161018815264</v>
+        <v>0.023300756</v>
       </c>
       <c r="K15">
-        <v>0.7900084152057386</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>1.06089073210089</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>1.077525875458077</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>1.077525875458077</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>1.069133732181096</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.9816867220406307</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.9816867220406307</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>0.9337671453319076</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>0.9337671453319076</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>1.01330429665182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9925079586246823</v>
+        <v>1.3403533</v>
       </c>
       <c r="D16">
-        <v>1.000767792840092</v>
+        <v>0.42160409</v>
       </c>
       <c r="E16">
-        <v>1.003113249223175</v>
+        <v>0.47331144</v>
       </c>
       <c r="F16">
-        <v>0.9925079586246823</v>
+        <v>1.6024769</v>
       </c>
       <c r="G16">
-        <v>1.005698510924666</v>
+        <v>0.14231852</v>
       </c>
       <c r="H16">
-        <v>1.00036455299345</v>
+        <v>0.42160409</v>
       </c>
       <c r="I16">
-        <v>0.999994527275843</v>
+        <v>1.8268372</v>
       </c>
       <c r="J16">
-        <v>1.000767792840092</v>
+        <v>0.14231852</v>
       </c>
       <c r="K16">
-        <v>0.9925079586246823</v>
+        <v>0.42160409</v>
       </c>
       <c r="L16">
-        <v>1.003113249223175</v>
+        <v>1.8268372</v>
       </c>
       <c r="M16">
-        <v>1.001940521031634</v>
+        <v>0.9845778599999999</v>
       </c>
       <c r="N16">
-        <v>1.001940521031634</v>
+        <v>0.9845778599999999</v>
       </c>
       <c r="O16">
-        <v>1.001415198352239</v>
+        <v>0.8141557199999999</v>
       </c>
       <c r="P16">
-        <v>0.99879633356265</v>
+        <v>0.7969199366666665</v>
       </c>
       <c r="Q16">
-        <v>0.99879633356265</v>
+        <v>0.7969199366666667</v>
       </c>
       <c r="R16">
-        <v>0.9972242398281581</v>
+        <v>0.7030909750000001</v>
       </c>
       <c r="S16">
-        <v>0.9972242398281581</v>
+        <v>0.7030909750000001</v>
       </c>
       <c r="T16">
-        <v>1.000407765313652</v>
+        <v>0.9678169083333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.009267844170714</v>
+        <v>0.71127456</v>
       </c>
       <c r="D17">
-        <v>0.9963471665628408</v>
+        <v>0.29198397</v>
       </c>
       <c r="E17">
-        <v>0.9961982934536814</v>
+        <v>1.2496294</v>
       </c>
       <c r="F17">
-        <v>1.009267844170714</v>
+        <v>1.8387972</v>
       </c>
       <c r="G17">
-        <v>0.9992688885810564</v>
+        <v>3.1660953</v>
       </c>
       <c r="H17">
-        <v>0.9983071542994405</v>
+        <v>0.29198397</v>
       </c>
       <c r="I17">
-        <v>0.9998677539461212</v>
+        <v>0.8660677</v>
       </c>
       <c r="J17">
-        <v>0.9963471665628408</v>
+        <v>3.1660953</v>
       </c>
       <c r="K17">
-        <v>1.009267844170714</v>
+        <v>0.29198397</v>
       </c>
       <c r="L17">
-        <v>0.9961982934536814</v>
+        <v>0.8660677</v>
       </c>
       <c r="M17">
-        <v>0.9962727300082611</v>
+        <v>2.0160815</v>
       </c>
       <c r="N17">
-        <v>0.9962727300082611</v>
+        <v>2.0160815</v>
       </c>
       <c r="O17">
-        <v>0.9969508714386542</v>
+        <v>1.760597466666667</v>
       </c>
       <c r="P17">
-        <v>1.000604434729079</v>
+        <v>1.441382323333334</v>
       </c>
       <c r="Q17">
-        <v>1.000604434729079</v>
+        <v>1.441382323333333</v>
       </c>
       <c r="R17">
-        <v>1.002770287089488</v>
+        <v>1.154032735</v>
       </c>
       <c r="S17">
-        <v>1.002770287089488</v>
+        <v>1.154032735</v>
       </c>
       <c r="T17">
-        <v>0.9998761835023092</v>
+        <v>1.353974688333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926466223289676</v>
+        <v>1.265754364383561</v>
       </c>
       <c r="D18">
-        <v>0.9898966027073223</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="E18">
-        <v>1.010456740209439</v>
+        <v>0.4530022798630136</v>
       </c>
       <c r="F18">
-        <v>0.9926466223289676</v>
+        <v>0.8560420383561644</v>
       </c>
       <c r="G18">
-        <v>1.011501138461547</v>
+        <v>0.07872620224657531</v>
       </c>
       <c r="H18">
-        <v>0.9931579550866466</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="I18">
-        <v>1.003614109473853</v>
+        <v>1.068760923287671</v>
       </c>
       <c r="J18">
-        <v>0.9898966027073223</v>
+        <v>0.07872620224657531</v>
       </c>
       <c r="K18">
-        <v>0.9926466223289676</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="L18">
-        <v>1.010456740209439</v>
+        <v>1.068760923287671</v>
       </c>
       <c r="M18">
-        <v>1.00017667145838</v>
+        <v>0.5737435627671233</v>
       </c>
       <c r="N18">
-        <v>1.00017667145838</v>
+        <v>0.5737435627671233</v>
       </c>
       <c r="O18">
-        <v>0.9978370993344692</v>
+        <v>0.5334964684657534</v>
       </c>
       <c r="P18">
-        <v>0.9976666550819094</v>
+        <v>0.9999578543561647</v>
       </c>
       <c r="Q18">
-        <v>0.9976666550819094</v>
+        <v>0.9999578543561647</v>
       </c>
       <c r="R18">
-        <v>0.996411646893674</v>
+        <v>1.213065000150685</v>
       </c>
       <c r="S18">
-        <v>0.996411646893674</v>
+        <v>1.213065000150685</v>
       </c>
       <c r="T18">
-        <v>1.000212194711296</v>
+        <v>0.9291120409452057</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9540787902493112</v>
+        <v>1.014608127894737</v>
       </c>
       <c r="D19">
-        <v>0.9726942075478164</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="E19">
-        <v>1.037185101399756</v>
+        <v>0.7807706016842105</v>
       </c>
       <c r="F19">
-        <v>0.9540787902493112</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="G19">
-        <v>1.027895961864632</v>
+        <v>1.164093971978947</v>
       </c>
       <c r="H19">
-        <v>0.9847997781540779</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="I19">
-        <v>1.013482158644606</v>
+        <v>1.17140193</v>
       </c>
       <c r="J19">
-        <v>0.9726942075478164</v>
+        <v>1.164093971978947</v>
       </c>
       <c r="K19">
-        <v>0.9540787902493112</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="L19">
-        <v>1.037185101399756</v>
+        <v>1.17140193</v>
       </c>
       <c r="M19">
-        <v>1.004939654473786</v>
+        <v>1.167747950989474</v>
       </c>
       <c r="N19">
-        <v>1.004939654473786</v>
+        <v>1.167747950989474</v>
       </c>
       <c r="O19">
-        <v>0.9982263623672168</v>
+        <v>1.038755501221053</v>
       </c>
       <c r="P19">
-        <v>0.9879860330656279</v>
+        <v>1.02566311802807</v>
       </c>
       <c r="Q19">
-        <v>0.9879860330656279</v>
+        <v>1.02566311802807</v>
       </c>
       <c r="R19">
-        <v>0.9795092223615488</v>
+        <v>0.9546207015473682</v>
       </c>
       <c r="S19">
-        <v>0.9795092223615488</v>
+        <v>0.9546207015473682</v>
       </c>
       <c r="T19">
-        <v>0.9983559996433665</v>
+        <v>1.130741852803509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.080359445789474</v>
+      </c>
+      <c r="D20">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="E20">
+        <v>0.8303641778947368</v>
+      </c>
+      <c r="F20">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="G20">
+        <v>0.3933302182947369</v>
+      </c>
+      <c r="H20">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="I20">
+        <v>1.057789206315789</v>
+      </c>
+      <c r="J20">
+        <v>0.3933302182947369</v>
+      </c>
+      <c r="K20">
+        <v>1.177367331578947</v>
+      </c>
+      <c r="L20">
+        <v>1.057789206315789</v>
+      </c>
+      <c r="M20">
+        <v>0.7255597123052631</v>
+      </c>
+      <c r="N20">
+        <v>0.7255597123052631</v>
+      </c>
+      <c r="O20">
+        <v>0.7604945341684211</v>
+      </c>
+      <c r="P20">
+        <v>0.8761622520631578</v>
+      </c>
+      <c r="Q20">
+        <v>0.8761622520631578</v>
+      </c>
+      <c r="R20">
+        <v>0.9514635219421053</v>
+      </c>
+      <c r="S20">
+        <v>0.9514635219421053</v>
+      </c>
+      <c r="T20">
+        <v>0.9503009989438596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9535375630950802</v>
+      </c>
+      <c r="D21">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="E21">
+        <v>1.140148854133967</v>
+      </c>
+      <c r="F21">
+        <v>0.4178431623142244</v>
+      </c>
+      <c r="G21">
+        <v>1.125456940596353</v>
+      </c>
+      <c r="H21">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="I21">
+        <v>0.7870593508693956</v>
+      </c>
+      <c r="J21">
+        <v>1.125456940596353</v>
+      </c>
+      <c r="K21">
+        <v>1.313706091969205</v>
+      </c>
+      <c r="L21">
+        <v>0.7870593508693956</v>
+      </c>
+      <c r="M21">
+        <v>0.956258145732874</v>
+      </c>
+      <c r="N21">
+        <v>0.956258145732874</v>
+      </c>
+      <c r="O21">
+        <v>1.017555048533238</v>
+      </c>
+      <c r="P21">
+        <v>1.075407461144984</v>
+      </c>
+      <c r="Q21">
+        <v>1.075407461144984</v>
+      </c>
+      <c r="R21">
+        <v>1.134982118851039</v>
+      </c>
+      <c r="S21">
+        <v>1.134982118851039</v>
+      </c>
+      <c r="T21">
+        <v>0.9562919938297041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9767818221903002</v>
+      </c>
+      <c r="D22">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="E22">
+        <v>1.052349445627135</v>
+      </c>
+      <c r="F22">
+        <v>1.105634345971594</v>
+      </c>
+      <c r="G22">
+        <v>1.094161018815264</v>
+      </c>
+      <c r="H22">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="I22">
+        <v>1.06089073210089</v>
+      </c>
+      <c r="J22">
+        <v>1.094161018815264</v>
+      </c>
+      <c r="K22">
+        <v>0.7900084152057384</v>
+      </c>
+      <c r="L22">
+        <v>1.06089073210089</v>
+      </c>
+      <c r="M22">
+        <v>1.077525875458077</v>
+      </c>
+      <c r="N22">
+        <v>1.077525875458077</v>
+      </c>
+      <c r="O22">
+        <v>1.069133732181096</v>
+      </c>
+      <c r="P22">
+        <v>0.9816867220406307</v>
+      </c>
+      <c r="Q22">
+        <v>0.9816867220406307</v>
+      </c>
+      <c r="R22">
+        <v>0.9337671453319076</v>
+      </c>
+      <c r="S22">
+        <v>0.9337671453319076</v>
+      </c>
+      <c r="T22">
+        <v>1.01330429665182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9545422929170098</v>
+      </c>
+      <c r="D23">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="E23">
+        <v>1.151264810053729</v>
+      </c>
+      <c r="F23">
+        <v>0.3915885631048786</v>
+      </c>
+      <c r="G23">
+        <v>1.016720245427739</v>
+      </c>
+      <c r="H23">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="I23">
+        <v>0.8043963162955584</v>
+      </c>
+      <c r="J23">
+        <v>1.016720245427739</v>
+      </c>
+      <c r="K23">
+        <v>1.306567086775266</v>
+      </c>
+      <c r="L23">
+        <v>0.8043963162955584</v>
+      </c>
+      <c r="M23">
+        <v>0.9105582808616488</v>
+      </c>
+      <c r="N23">
+        <v>0.9105582808616488</v>
+      </c>
+      <c r="O23">
+        <v>0.9907937905923423</v>
+      </c>
+      <c r="P23">
+        <v>1.042561216166188</v>
+      </c>
+      <c r="Q23">
+        <v>1.042561216166188</v>
+      </c>
+      <c r="R23">
+        <v>1.108562683818457</v>
+      </c>
+      <c r="S23">
+        <v>1.108562683818457</v>
+      </c>
+      <c r="T23">
+        <v>0.9375132190956968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9803024679840763</v>
+      </c>
+      <c r="D24">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="E24">
+        <v>1.026464024244751</v>
+      </c>
+      <c r="F24">
+        <v>1.103163809605186</v>
+      </c>
+      <c r="G24">
+        <v>1.220087447326808</v>
+      </c>
+      <c r="H24">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="I24">
+        <v>1.045606209063362</v>
+      </c>
+      <c r="J24">
+        <v>1.220087447326808</v>
+      </c>
+      <c r="K24">
+        <v>0.8282413586221009</v>
+      </c>
+      <c r="L24">
+        <v>1.045606209063362</v>
+      </c>
+      <c r="M24">
+        <v>1.132846828195085</v>
+      </c>
+      <c r="N24">
+        <v>1.132846828195085</v>
+      </c>
+      <c r="O24">
+        <v>1.097385893544974</v>
+      </c>
+      <c r="P24">
+        <v>1.031311671670757</v>
+      </c>
+      <c r="Q24">
+        <v>1.031311671670757</v>
+      </c>
+      <c r="R24">
+        <v>0.9805440934085932</v>
+      </c>
+      <c r="S24">
+        <v>0.9805440934085932</v>
+      </c>
+      <c r="T24">
+        <v>1.033977552807714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9559251836514618</v>
+      </c>
+      <c r="D25">
+        <v>1.29920124733318</v>
+      </c>
+      <c r="E25">
+        <v>1.162692241699901</v>
+      </c>
+      <c r="F25">
+        <v>0.3653580057850038</v>
+      </c>
+      <c r="G25">
+        <v>0.9064762967194058</v>
+      </c>
+      <c r="H25">
+        <v>1.29920124733318</v>
+      </c>
+      <c r="I25">
+        <v>0.822086687596558</v>
+      </c>
+      <c r="J25">
+        <v>0.9064762967194058</v>
+      </c>
+      <c r="K25">
+        <v>1.29920124733318</v>
+      </c>
+      <c r="L25">
+        <v>0.822086687596558</v>
+      </c>
+      <c r="M25">
+        <v>0.8642814921579819</v>
+      </c>
+      <c r="N25">
+        <v>0.8642814921579819</v>
+      </c>
+      <c r="O25">
+        <v>0.9637517420052882</v>
+      </c>
+      <c r="P25">
+        <v>1.009254743883048</v>
+      </c>
+      <c r="Q25">
+        <v>1.009254743883048</v>
+      </c>
+      <c r="R25">
+        <v>1.081741369745581</v>
+      </c>
+      <c r="S25">
+        <v>1.081741369745581</v>
+      </c>
+      <c r="T25">
+        <v>0.9186232771309184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9835934493494953</v>
+      </c>
+      <c r="D26">
+        <v>0.8665367965457179</v>
+      </c>
+      <c r="E26">
+        <v>1.000311077396204</v>
+      </c>
+      <c r="F26">
+        <v>1.100772996466767</v>
+      </c>
+      <c r="G26">
+        <v>1.347091756297569</v>
+      </c>
+      <c r="H26">
+        <v>0.8665367965457179</v>
+      </c>
+      <c r="I26">
+        <v>1.029999463662073</v>
+      </c>
+      <c r="J26">
+        <v>1.347091756297569</v>
+      </c>
+      <c r="K26">
+        <v>0.8665367965457179</v>
+      </c>
+      <c r="L26">
+        <v>1.029999463662073</v>
+      </c>
+      <c r="M26">
+        <v>1.188545609979821</v>
+      </c>
+      <c r="N26">
+        <v>1.188545609979821</v>
+      </c>
+      <c r="O26">
+        <v>1.125800765785282</v>
+      </c>
+      <c r="P26">
+        <v>1.08120933883512</v>
+      </c>
+      <c r="Q26">
+        <v>1.08120933883512</v>
+      </c>
+      <c r="R26">
+        <v>1.027541203262769</v>
+      </c>
+      <c r="S26">
+        <v>1.027541203262769</v>
+      </c>
+      <c r="T26">
+        <v>1.054717589952971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004863894098768</v>
+      </c>
+      <c r="D27">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="E27">
+        <v>0.9738723371902859</v>
+      </c>
+      <c r="F27">
+        <v>1.138378979556837</v>
+      </c>
+      <c r="G27">
+        <v>0.6904648474309661</v>
+      </c>
+      <c r="H27">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="I27">
+        <v>1.008959359014159</v>
+      </c>
+      <c r="J27">
+        <v>0.6904648474309661</v>
+      </c>
+      <c r="K27">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="L27">
+        <v>1.008959359014159</v>
+      </c>
+      <c r="M27">
+        <v>0.8497121032225627</v>
+      </c>
+      <c r="N27">
+        <v>0.8497121032225627</v>
+      </c>
+      <c r="O27">
+        <v>0.8910988478784705</v>
+      </c>
+      <c r="P27">
+        <v>0.9108178339335669</v>
+      </c>
+      <c r="Q27">
+        <v>0.910817833933567</v>
+      </c>
+      <c r="R27">
+        <v>0.941370699289069</v>
+      </c>
+      <c r="S27">
+        <v>0.941370699289069</v>
+      </c>
+      <c r="T27">
+        <v>0.9749281187744319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.062641005984206</v>
+      </c>
+      <c r="D28">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="E28">
+        <v>0.9561321046794014</v>
+      </c>
+      <c r="F28">
+        <v>0.801089990859043</v>
+      </c>
+      <c r="G28">
+        <v>1.034837450252357</v>
+      </c>
+      <c r="H28">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="I28">
+        <v>1.08015186304559</v>
+      </c>
+      <c r="J28">
+        <v>1.034837450252357</v>
+      </c>
+      <c r="K28">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="L28">
+        <v>1.08015186304559</v>
+      </c>
+      <c r="M28">
+        <v>1.057494656648973</v>
+      </c>
+      <c r="N28">
+        <v>1.057494656648973</v>
+      </c>
+      <c r="O28">
+        <v>1.023707139325783</v>
+      </c>
+      <c r="P28">
+        <v>1.015060283975743</v>
+      </c>
+      <c r="Q28">
+        <v>1.015060283975743</v>
+      </c>
+      <c r="R28">
+        <v>0.9938430976391281</v>
+      </c>
+      <c r="S28">
+        <v>0.9938430976391281</v>
+      </c>
+      <c r="T28">
+        <v>0.9775073255749799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9056055083176673</v>
+      </c>
+      <c r="D29">
+        <v>1.026123435462688</v>
+      </c>
+      <c r="E29">
+        <v>1.154082976550505</v>
+      </c>
+      <c r="F29">
+        <v>0.7133249286964937</v>
+      </c>
+      <c r="G29">
+        <v>1.868180047167535</v>
+      </c>
+      <c r="H29">
+        <v>1.026123435462688</v>
+      </c>
+      <c r="I29">
+        <v>0.7915365006207972</v>
+      </c>
+      <c r="J29">
+        <v>1.868180047167535</v>
+      </c>
+      <c r="K29">
+        <v>1.026123435462688</v>
+      </c>
+      <c r="L29">
+        <v>0.7915365006207972</v>
+      </c>
+      <c r="M29">
+        <v>1.329858273894166</v>
+      </c>
+      <c r="N29">
+        <v>1.329858273894166</v>
+      </c>
+      <c r="O29">
+        <v>1.271266508112946</v>
+      </c>
+      <c r="P29">
+        <v>1.22861332775034</v>
+      </c>
+      <c r="Q29">
+        <v>1.22861332775034</v>
+      </c>
+      <c r="R29">
+        <v>1.177990854678427</v>
+      </c>
+      <c r="S29">
+        <v>1.177990854678427</v>
+      </c>
+      <c r="T29">
+        <v>1.076475566135948</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.033385143171102</v>
+        <v>1.046421647621307</v>
       </c>
       <c r="D4">
-        <v>0.9573770491022252</v>
+        <v>0.9294327993315166</v>
       </c>
       <c r="E4">
-        <v>0.9339520184142869</v>
+        <v>0.8469334977011781</v>
       </c>
       <c r="F4">
-        <v>1.114979868704176</v>
+        <v>1.446907162120152</v>
       </c>
       <c r="G4">
-        <v>0.8977528515851234</v>
+        <v>0.8097575634264537</v>
       </c>
       <c r="H4">
-        <v>0.9573770491022252</v>
+        <v>0.9294327993315166</v>
       </c>
       <c r="I4">
-        <v>1.069113063312361</v>
+        <v>1.100207076531315</v>
       </c>
       <c r="J4">
-        <v>0.8977528515851234</v>
+        <v>0.8097575634264537</v>
       </c>
       <c r="K4">
-        <v>0.9573770491022252</v>
+        <v>0.9294327993315166</v>
       </c>
       <c r="L4">
-        <v>1.069113063312361</v>
+        <v>1.100207076531315</v>
       </c>
       <c r="M4">
-        <v>0.9834329574487422</v>
+        <v>0.9549823199788843</v>
       </c>
       <c r="N4">
-        <v>0.9834329574487422</v>
+        <v>0.9549823199788843</v>
       </c>
       <c r="O4">
-        <v>0.9669393111039236</v>
+        <v>0.9189660458863155</v>
       </c>
       <c r="P4">
-        <v>0.9747476546665698</v>
+        <v>0.9464658130964283</v>
       </c>
       <c r="Q4">
-        <v>0.9747476546665698</v>
+        <v>0.9464658130964283</v>
       </c>
       <c r="R4">
-        <v>0.9704050032754836</v>
+        <v>0.9422075596552004</v>
       </c>
       <c r="S4">
-        <v>0.9704050032754836</v>
+        <v>0.9422075596552004</v>
       </c>
       <c r="T4">
-        <v>1.001093332381546</v>
+        <v>1.029943291121987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.054343240079247</v>
+        <v>1.073883197227289</v>
       </c>
       <c r="D5">
-        <v>0.9428040429394832</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="E5">
-        <v>0.8163665504560521</v>
+        <v>0.9055932554517335</v>
       </c>
       <c r="F5">
-        <v>1.516998534180114</v>
+        <v>0.8741154371911088</v>
       </c>
       <c r="G5">
-        <v>0.7650929570766559</v>
+        <v>0.4341990901287684</v>
       </c>
       <c r="H5">
-        <v>0.9428040429394832</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="I5">
-        <v>1.109397415605189</v>
+        <v>1.028850083823924</v>
       </c>
       <c r="J5">
-        <v>0.7650929570766559</v>
+        <v>0.4341990901287684</v>
       </c>
       <c r="K5">
-        <v>0.9428040429394832</v>
+        <v>1.197661974067859</v>
       </c>
       <c r="L5">
-        <v>1.109397415605189</v>
+        <v>1.028850083823924</v>
       </c>
       <c r="M5">
-        <v>0.9372451863409224</v>
+        <v>0.7315245869763464</v>
       </c>
       <c r="N5">
-        <v>0.9372451863409224</v>
+        <v>0.7315245869763464</v>
       </c>
       <c r="O5">
-        <v>0.8969523077126323</v>
+        <v>0.7895474764681421</v>
       </c>
       <c r="P5">
-        <v>0.9390981385404427</v>
+        <v>0.8869037160068506</v>
       </c>
       <c r="Q5">
-        <v>0.9390981385404427</v>
+        <v>0.8869037160068506</v>
       </c>
       <c r="R5">
-        <v>0.9400246146402028</v>
+        <v>0.9645932805221027</v>
       </c>
       <c r="S5">
-        <v>0.9400246146402028</v>
+        <v>0.9645932805221027</v>
       </c>
       <c r="T5">
-        <v>1.034167123389457</v>
+        <v>0.9190505063151139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086118455708456</v>
+        <v>1.033385143171102</v>
       </c>
       <c r="D6">
-        <v>0.5747060909268028</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="E6">
-        <v>0.4392787722217252</v>
+        <v>0.9339520184142869</v>
       </c>
       <c r="F6">
-        <v>3.301060572537877</v>
+        <v>1.114979868704176</v>
       </c>
       <c r="G6">
-        <v>0.4066202398335227</v>
+        <v>0.8977528515851234</v>
       </c>
       <c r="H6">
-        <v>0.5747060909268028</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="I6">
-        <v>1.349734541292833</v>
+        <v>1.069113063312361</v>
       </c>
       <c r="J6">
-        <v>0.4066202398335227</v>
+        <v>0.8977528515851234</v>
       </c>
       <c r="K6">
-        <v>0.5747060909268028</v>
+        <v>0.9573770491022252</v>
       </c>
       <c r="L6">
-        <v>1.349734541292833</v>
+        <v>1.069113063312361</v>
       </c>
       <c r="M6">
-        <v>0.8781773905631778</v>
+        <v>0.9834329574487422</v>
       </c>
       <c r="N6">
-        <v>0.8781773905631778</v>
+        <v>0.9834329574487422</v>
       </c>
       <c r="O6">
-        <v>0.7318778511160269</v>
+        <v>0.9669393111039236</v>
       </c>
       <c r="P6">
-        <v>0.7770202906843862</v>
+        <v>0.9747476546665698</v>
       </c>
       <c r="Q6">
-        <v>0.7770202906843862</v>
+        <v>0.9747476546665698</v>
       </c>
       <c r="R6">
-        <v>0.7264417407449903</v>
+        <v>0.9704050032754836</v>
       </c>
       <c r="S6">
-        <v>0.7264417407449903</v>
+        <v>0.9704050032754836</v>
       </c>
       <c r="T6">
-        <v>1.192919778753536</v>
+        <v>1.001093332381546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.012411069978353</v>
+        <v>1.054343240079247</v>
       </c>
       <c r="D7">
-        <v>1.036513128024727</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="E7">
-        <v>0.974792843985537</v>
+        <v>0.8163665504560521</v>
       </c>
       <c r="F7">
-        <v>0.9962065588078522</v>
+        <v>1.516998534180114</v>
       </c>
       <c r="G7">
-        <v>0.9564733226210005</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="H7">
-        <v>1.036513128024727</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="I7">
-        <v>1.00400497072795</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="J7">
-        <v>0.9564733226210005</v>
+        <v>0.7650929570766559</v>
       </c>
       <c r="K7">
-        <v>1.036513128024727</v>
+        <v>0.9428040429394832</v>
       </c>
       <c r="L7">
-        <v>1.00400497072795</v>
+        <v>1.109397415605189</v>
       </c>
       <c r="M7">
-        <v>0.9802391466744752</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="N7">
-        <v>0.9802391466744752</v>
+        <v>0.9372451863409224</v>
       </c>
       <c r="O7">
-        <v>0.9784237124448292</v>
+        <v>0.8969523077126323</v>
       </c>
       <c r="P7">
-        <v>0.9989971404578926</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="Q7">
-        <v>0.9989971404578926</v>
+        <v>0.9390981385404427</v>
       </c>
       <c r="R7">
-        <v>1.008376137349601</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="S7">
-        <v>1.008376137349601</v>
+        <v>0.9400246146402028</v>
       </c>
       <c r="T7">
-        <v>0.9967336490242366</v>
+        <v>1.034167123389457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998677539461216</v>
+        <v>1.086118455708456</v>
       </c>
       <c r="D8">
-        <v>1.009267844170715</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="E8">
-        <v>0.9983071542994404</v>
+        <v>0.4392787722217252</v>
       </c>
       <c r="F8">
-        <v>0.9992688885810562</v>
+        <v>3.301060572537877</v>
       </c>
       <c r="G8">
-        <v>0.9963471665628404</v>
+        <v>0.4066202398335227</v>
       </c>
       <c r="H8">
-        <v>1.009267844170715</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="I8">
-        <v>0.9961982934536813</v>
+        <v>1.349734541292833</v>
       </c>
       <c r="J8">
-        <v>0.9963471665628404</v>
+        <v>0.4066202398335227</v>
       </c>
       <c r="K8">
-        <v>1.009267844170715</v>
+        <v>0.5747060909268028</v>
       </c>
       <c r="L8">
-        <v>0.9961982934536813</v>
+        <v>1.349734541292833</v>
       </c>
       <c r="M8">
-        <v>0.9962727300082608</v>
+        <v>0.8781773905631778</v>
       </c>
       <c r="N8">
-        <v>0.9962727300082608</v>
+        <v>0.8781773905631778</v>
       </c>
       <c r="O8">
-        <v>0.996950871438654</v>
+        <v>0.7318778511160269</v>
       </c>
       <c r="P8">
-        <v>1.000604434729079</v>
+        <v>0.7770202906843862</v>
       </c>
       <c r="Q8">
-        <v>1.000604434729079</v>
+        <v>0.7770202906843862</v>
       </c>
       <c r="R8">
-        <v>1.002770287089488</v>
+        <v>0.7264417407449903</v>
       </c>
       <c r="S8">
-        <v>1.002770287089488</v>
+        <v>0.7264417407449903</v>
       </c>
       <c r="T8">
-        <v>0.9998761835023092</v>
+        <v>1.192919778753536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.021652776592006</v>
+        <v>1.012411069978353</v>
       </c>
       <c r="D9">
-        <v>1.067179957950734</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="E9">
-        <v>0.9544102242819533</v>
+        <v>0.974792843985537</v>
       </c>
       <c r="F9">
-        <v>0.9937205851426282</v>
+        <v>0.9962065588078522</v>
       </c>
       <c r="G9">
-        <v>0.925444744473007</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="H9">
-        <v>1.067179957950734</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="I9">
-        <v>1.006935363933727</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="J9">
-        <v>0.925444744473007</v>
+        <v>0.9564733226210005</v>
       </c>
       <c r="K9">
-        <v>1.067179957950734</v>
+        <v>1.036513128024727</v>
       </c>
       <c r="L9">
-        <v>1.006935363933727</v>
+        <v>1.00400497072795</v>
       </c>
       <c r="M9">
-        <v>0.9661900542033669</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="N9">
-        <v>0.9661900542033669</v>
+        <v>0.9802391466744752</v>
       </c>
       <c r="O9">
-        <v>0.9622634442295624</v>
+        <v>0.9784237124448292</v>
       </c>
       <c r="P9">
-        <v>0.9998533554524891</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="Q9">
-        <v>0.9998533554524891</v>
+        <v>0.9989971404578926</v>
       </c>
       <c r="R9">
-        <v>1.01668500607705</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="S9">
-        <v>1.01668500607705</v>
+        <v>1.008376137349601</v>
       </c>
       <c r="T9">
-        <v>0.9948906087290091</v>
+        <v>0.9967336490242366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.084985233941614</v>
+        <v>0.9998677539461216</v>
       </c>
       <c r="D10">
-        <v>0.5598474426949248</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="E10">
-        <v>0.4298847149204158</v>
+        <v>0.9983071542994404</v>
       </c>
       <c r="F10">
-        <v>3.355672377646925</v>
+        <v>0.9992688885810562</v>
       </c>
       <c r="G10">
-        <v>0.4191893411379741</v>
+        <v>0.9963471665628404</v>
       </c>
       <c r="H10">
-        <v>0.5598474426949248</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="I10">
-        <v>1.355014705613093</v>
+        <v>0.9961982934536813</v>
       </c>
       <c r="J10">
-        <v>0.4191893411379741</v>
+        <v>0.9963471665628404</v>
       </c>
       <c r="K10">
-        <v>0.5598474426949248</v>
+        <v>1.009267844170715</v>
       </c>
       <c r="L10">
-        <v>1.355014705613093</v>
+        <v>0.9961982934536813</v>
       </c>
       <c r="M10">
-        <v>0.8871020233755337</v>
+        <v>0.9962727300082608</v>
       </c>
       <c r="N10">
-        <v>0.8871020233755337</v>
+        <v>0.9962727300082608</v>
       </c>
       <c r="O10">
-        <v>0.7346962538904944</v>
+        <v>0.996950871438654</v>
       </c>
       <c r="P10">
-        <v>0.7780171631486641</v>
+        <v>1.000604434729079</v>
       </c>
       <c r="Q10">
-        <v>0.778017163148664</v>
+        <v>1.000604434729079</v>
       </c>
       <c r="R10">
-        <v>0.7234747330352291</v>
+        <v>1.002770287089488</v>
       </c>
       <c r="S10">
-        <v>0.7234747330352291</v>
+        <v>1.002770287089488</v>
       </c>
       <c r="T10">
-        <v>1.200765635992491</v>
+        <v>0.9998761835023092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.045369430301263</v>
+        <v>1.021652776592006</v>
       </c>
       <c r="D11">
-        <v>1.03317993382523</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="E11">
-        <v>0.9347055293416753</v>
+        <v>0.9544102242819533</v>
       </c>
       <c r="F11">
-        <v>0.9864506825013898</v>
+        <v>0.9937205851426282</v>
       </c>
       <c r="G11">
-        <v>0.8223862314977722</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="H11">
-        <v>1.03317993382523</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="I11">
-        <v>1.05137726711954</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="J11">
-        <v>0.8223862314977722</v>
+        <v>0.925444744473007</v>
       </c>
       <c r="K11">
-        <v>1.03317993382523</v>
+        <v>1.067179957950734</v>
       </c>
       <c r="L11">
-        <v>1.05137726711954</v>
+        <v>1.006935363933727</v>
       </c>
       <c r="M11">
-        <v>0.9368817493086559</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="N11">
-        <v>0.9368817493086559</v>
+        <v>0.9661900542033669</v>
       </c>
       <c r="O11">
-        <v>0.9361563426529956</v>
+        <v>0.9622634442295624</v>
       </c>
       <c r="P11">
-        <v>0.9689811441475141</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="Q11">
-        <v>0.9689811441475141</v>
+        <v>0.9998533554524891</v>
       </c>
       <c r="R11">
-        <v>0.9850308415669431</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="S11">
-        <v>0.9850308415669431</v>
+        <v>1.01668500607705</v>
       </c>
       <c r="T11">
-        <v>0.9789115124311452</v>
+        <v>0.9948906087290091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.039516939736841</v>
+        <v>1.084985233941614</v>
       </c>
       <c r="D12">
-        <v>0.8542876120315794</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="E12">
-        <v>0.8171662445294766</v>
+        <v>0.4298847149204158</v>
       </c>
       <c r="F12">
-        <v>1.66861615307579</v>
+        <v>3.355672377646925</v>
       </c>
       <c r="G12">
-        <v>0.8432034167804205</v>
+        <v>0.4191893411379741</v>
       </c>
       <c r="H12">
-        <v>0.8542876120315794</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="I12">
-        <v>1.127469580473687</v>
+        <v>1.355014705613093</v>
       </c>
       <c r="J12">
-        <v>0.8432034167804205</v>
+        <v>0.4191893411379741</v>
       </c>
       <c r="K12">
-        <v>0.8542876120315794</v>
+        <v>0.5598474426949248</v>
       </c>
       <c r="L12">
-        <v>1.127469580473687</v>
+        <v>1.355014705613093</v>
       </c>
       <c r="M12">
-        <v>0.9853364986270536</v>
+        <v>0.8871020233755337</v>
       </c>
       <c r="N12">
-        <v>0.9853364986270536</v>
+        <v>0.8871020233755337</v>
       </c>
       <c r="O12">
-        <v>0.9292797472611946</v>
+        <v>0.7346962538904944</v>
       </c>
       <c r="P12">
-        <v>0.9416535364285622</v>
+        <v>0.7780171631486641</v>
       </c>
       <c r="Q12">
-        <v>0.9416535364285622</v>
+        <v>0.778017163148664</v>
       </c>
       <c r="R12">
-        <v>0.9198120553293165</v>
+        <v>0.7234747330352291</v>
       </c>
       <c r="S12">
-        <v>0.9198120553293165</v>
+        <v>0.7234747330352291</v>
       </c>
       <c r="T12">
-        <v>1.058376657771299</v>
+        <v>1.200765635992491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9416256317903602</v>
+        <v>1.045369430301263</v>
       </c>
       <c r="D13">
-        <v>0.9840585661849904</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="E13">
-        <v>1.122970895831006</v>
+        <v>0.9347055293416753</v>
       </c>
       <c r="F13">
-        <v>0.8047403812846353</v>
+        <v>0.9864506825013898</v>
       </c>
       <c r="G13">
-        <v>1.281122968358332</v>
+        <v>0.8223862314977722</v>
       </c>
       <c r="H13">
-        <v>0.9840585661849904</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="I13">
-        <v>0.9213742309576207</v>
+        <v>1.05137726711954</v>
       </c>
       <c r="J13">
-        <v>1.281122968358332</v>
+        <v>0.8223862314977722</v>
       </c>
       <c r="K13">
-        <v>0.9840585661849904</v>
+        <v>1.03317993382523</v>
       </c>
       <c r="L13">
-        <v>0.9213742309576207</v>
+        <v>1.05137726711954</v>
       </c>
       <c r="M13">
-        <v>1.101248599657976</v>
+        <v>0.9368817493086559</v>
       </c>
       <c r="N13">
-        <v>1.101248599657976</v>
+        <v>0.9368817493086559</v>
       </c>
       <c r="O13">
-        <v>1.108489365048986</v>
+        <v>0.9361563426529956</v>
       </c>
       <c r="P13">
-        <v>1.062185255166981</v>
+        <v>0.9689811441475141</v>
       </c>
       <c r="Q13">
-        <v>1.062185255166981</v>
+        <v>0.9689811441475141</v>
       </c>
       <c r="R13">
-        <v>1.042653582921483</v>
+        <v>0.9850308415669431</v>
       </c>
       <c r="S13">
-        <v>1.042653582921483</v>
+        <v>0.9850308415669431</v>
       </c>
       <c r="T13">
-        <v>1.009315445734491</v>
+        <v>0.9789115124311452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.1262586</v>
+        <v>1.039516939736841</v>
       </c>
       <c r="D14">
-        <v>0.2138068799999999</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="E14">
-        <v>0.02988525700000006</v>
+        <v>0.8171662445294766</v>
       </c>
       <c r="F14">
-        <v>5.166004400000004</v>
+        <v>1.66861615307579</v>
       </c>
       <c r="G14">
-        <v>0.001799323199999997</v>
+        <v>0.8432034167804205</v>
       </c>
       <c r="H14">
-        <v>0.2138068799999999</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="I14">
-        <v>1.602552399999997</v>
+        <v>1.127469580473687</v>
       </c>
       <c r="J14">
-        <v>0.001799323199999997</v>
+        <v>0.8432034167804205</v>
       </c>
       <c r="K14">
-        <v>0.2138068799999999</v>
+        <v>0.8542876120315794</v>
       </c>
       <c r="L14">
-        <v>1.602552399999997</v>
+        <v>1.127469580473687</v>
       </c>
       <c r="M14">
-        <v>0.8021758615999985</v>
+        <v>0.9853364986270536</v>
       </c>
       <c r="N14">
-        <v>0.8021758615999985</v>
+        <v>0.9853364986270536</v>
       </c>
       <c r="O14">
-        <v>0.5447456600666657</v>
+        <v>0.9292797472611946</v>
       </c>
       <c r="P14">
-        <v>0.6060528677333323</v>
+        <v>0.9416535364285622</v>
       </c>
       <c r="Q14">
-        <v>0.6060528677333323</v>
+        <v>0.9416535364285622</v>
       </c>
       <c r="R14">
-        <v>0.5079913707999992</v>
+        <v>0.9198120553293165</v>
       </c>
       <c r="S14">
-        <v>0.5079913707999992</v>
+        <v>0.9198120553293165</v>
       </c>
       <c r="T14">
-        <v>1.356717810033333</v>
+        <v>1.058376657771299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.134</v>
+        <v>0.9416256317903602</v>
       </c>
       <c r="D15">
-        <v>3.4428622</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="E15">
-        <v>0.39134565</v>
+        <v>1.122970895831006</v>
       </c>
       <c r="F15">
-        <v>0.21380688</v>
+        <v>0.8047403812846353</v>
       </c>
       <c r="G15">
-        <v>0.023300756</v>
+        <v>1.281122968358332</v>
       </c>
       <c r="H15">
-        <v>3.4428622</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="I15">
-        <v>0.42160412</v>
+        <v>0.9213742309576207</v>
       </c>
       <c r="J15">
-        <v>0.023300756</v>
+        <v>1.281122968358332</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>0.9840585661849904</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>0.9213742309576207</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>1.101248599657976</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>1.101248599657976</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>1.108489365048986</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>1.062185255166981</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>1.062185255166981</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>1.042653582921483</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>1.042653582921483</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>1.009315445734491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.3403533</v>
+        <v>1.1262586</v>
       </c>
       <c r="D16">
-        <v>0.42160409</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E16">
-        <v>0.47331144</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="F16">
-        <v>1.6024769</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="G16">
-        <v>0.14231852</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H16">
-        <v>0.42160409</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="I16">
-        <v>1.8268372</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="J16">
-        <v>0.14231852</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="K16">
-        <v>0.42160409</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L16">
-        <v>1.8268372</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M16">
-        <v>0.9845778599999999</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N16">
-        <v>0.9845778599999999</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O16">
-        <v>0.8141557199999999</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P16">
-        <v>0.7969199366666665</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q16">
-        <v>0.7969199366666667</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R16">
-        <v>0.7030909750000001</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S16">
-        <v>0.7030909750000001</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T16">
-        <v>0.9678169083333334</v>
+        <v>1.356717810033333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.71127456</v>
+        <v>1.134</v>
       </c>
       <c r="D17">
-        <v>0.29198397</v>
+        <v>3.4428622</v>
       </c>
       <c r="E17">
-        <v>1.2496294</v>
+        <v>0.39134565</v>
       </c>
       <c r="F17">
-        <v>1.8387972</v>
+        <v>0.21380688</v>
       </c>
       <c r="G17">
-        <v>3.1660953</v>
+        <v>0.023300756</v>
       </c>
       <c r="H17">
-        <v>0.29198397</v>
+        <v>3.4428622</v>
       </c>
       <c r="I17">
-        <v>0.8660677</v>
+        <v>0.42160412</v>
       </c>
       <c r="J17">
-        <v>3.1660953</v>
+        <v>0.023300756</v>
       </c>
       <c r="K17">
-        <v>0.29198397</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>0.8660677</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>2.0160815</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>2.0160815</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>1.760597466666667</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>1.441382323333334</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>1.441382323333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>1.154032735</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>1.154032735</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>1.353974688333333</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.265754364383561</v>
+        <v>1.3403533</v>
       </c>
       <c r="D18">
-        <v>1.852386437534247</v>
+        <v>0.42160409</v>
       </c>
       <c r="E18">
-        <v>0.4530022798630136</v>
+        <v>0.47331144</v>
       </c>
       <c r="F18">
-        <v>0.8560420383561644</v>
+        <v>1.6024769</v>
       </c>
       <c r="G18">
-        <v>0.07872620224657531</v>
+        <v>0.14231852</v>
       </c>
       <c r="H18">
-        <v>1.852386437534247</v>
+        <v>0.42160409</v>
       </c>
       <c r="I18">
-        <v>1.068760923287671</v>
+        <v>1.8268372</v>
       </c>
       <c r="J18">
-        <v>0.07872620224657531</v>
+        <v>0.14231852</v>
       </c>
       <c r="K18">
-        <v>1.852386437534247</v>
+        <v>0.42160409</v>
       </c>
       <c r="L18">
-        <v>1.068760923287671</v>
+        <v>1.8268372</v>
       </c>
       <c r="M18">
-        <v>0.5737435627671233</v>
+        <v>0.9845778599999999</v>
       </c>
       <c r="N18">
-        <v>0.5737435627671233</v>
+        <v>0.9845778599999999</v>
       </c>
       <c r="O18">
-        <v>0.5334964684657534</v>
+        <v>0.8141557199999999</v>
       </c>
       <c r="P18">
-        <v>0.9999578543561647</v>
+        <v>0.7969199366666665</v>
       </c>
       <c r="Q18">
-        <v>0.9999578543561647</v>
+        <v>0.7969199366666667</v>
       </c>
       <c r="R18">
-        <v>1.213065000150685</v>
+        <v>0.7030909750000001</v>
       </c>
       <c r="S18">
-        <v>1.213065000150685</v>
+        <v>0.7030909750000001</v>
       </c>
       <c r="T18">
-        <v>0.9291120409452057</v>
+        <v>0.9678169083333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.014608127894737</v>
+        <v>0.71127456</v>
       </c>
       <c r="D19">
-        <v>0.741493452105263</v>
+        <v>0.29198397</v>
       </c>
       <c r="E19">
-        <v>0.7807706016842105</v>
+        <v>1.2496294</v>
       </c>
       <c r="F19">
-        <v>1.912083033157895</v>
+        <v>1.8387972</v>
       </c>
       <c r="G19">
-        <v>1.164093971978947</v>
+        <v>3.1660953</v>
       </c>
       <c r="H19">
-        <v>0.741493452105263</v>
+        <v>0.29198397</v>
       </c>
       <c r="I19">
-        <v>1.17140193</v>
+        <v>0.8660677</v>
       </c>
       <c r="J19">
-        <v>1.164093971978947</v>
+        <v>3.1660953</v>
       </c>
       <c r="K19">
-        <v>0.741493452105263</v>
+        <v>0.29198397</v>
       </c>
       <c r="L19">
-        <v>1.17140193</v>
+        <v>0.8660677</v>
       </c>
       <c r="M19">
-        <v>1.167747950989474</v>
+        <v>2.0160815</v>
       </c>
       <c r="N19">
-        <v>1.167747950989474</v>
+        <v>2.0160815</v>
       </c>
       <c r="O19">
-        <v>1.038755501221053</v>
+        <v>1.760597466666667</v>
       </c>
       <c r="P19">
-        <v>1.02566311802807</v>
+        <v>1.441382323333334</v>
       </c>
       <c r="Q19">
-        <v>1.02566311802807</v>
+        <v>1.441382323333333</v>
       </c>
       <c r="R19">
-        <v>0.9546207015473682</v>
+        <v>1.154032735</v>
       </c>
       <c r="S19">
-        <v>0.9546207015473682</v>
+        <v>1.154032735</v>
       </c>
       <c r="T19">
-        <v>1.130741852803509</v>
+        <v>1.353974688333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.080359445789474</v>
+        <v>1.265754364383561</v>
       </c>
       <c r="D20">
-        <v>1.177367331578947</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="E20">
-        <v>0.8303641778947368</v>
+        <v>0.4530022798630136</v>
       </c>
       <c r="F20">
-        <v>1.162595613789474</v>
+        <v>0.8560420383561644</v>
       </c>
       <c r="G20">
-        <v>0.3933302182947369</v>
+        <v>0.07872620224657531</v>
       </c>
       <c r="H20">
-        <v>1.177367331578947</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="I20">
-        <v>1.057789206315789</v>
+        <v>1.068760923287671</v>
       </c>
       <c r="J20">
-        <v>0.3933302182947369</v>
+        <v>0.07872620224657531</v>
       </c>
       <c r="K20">
-        <v>1.177367331578947</v>
+        <v>1.852386437534247</v>
       </c>
       <c r="L20">
-        <v>1.057789206315789</v>
+        <v>1.068760923287671</v>
       </c>
       <c r="M20">
-        <v>0.7255597123052631</v>
+        <v>0.5737435627671233</v>
       </c>
       <c r="N20">
-        <v>0.7255597123052631</v>
+        <v>0.5737435627671233</v>
       </c>
       <c r="O20">
-        <v>0.7604945341684211</v>
+        <v>0.5334964684657534</v>
       </c>
       <c r="P20">
-        <v>0.8761622520631578</v>
+        <v>0.9999578543561647</v>
       </c>
       <c r="Q20">
-        <v>0.8761622520631578</v>
+        <v>0.9999578543561647</v>
       </c>
       <c r="R20">
-        <v>0.9514635219421053</v>
+        <v>1.213065000150685</v>
       </c>
       <c r="S20">
-        <v>0.9514635219421053</v>
+        <v>1.213065000150685</v>
       </c>
       <c r="T20">
-        <v>0.9503009989438596</v>
+        <v>0.9291120409452057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9535375630950802</v>
+        <v>1.014608127894737</v>
       </c>
       <c r="D21">
-        <v>1.313706091969205</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="E21">
-        <v>1.140148854133967</v>
+        <v>0.7807706016842105</v>
       </c>
       <c r="F21">
-        <v>0.4178431623142244</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="G21">
-        <v>1.125456940596353</v>
+        <v>1.164093971978947</v>
       </c>
       <c r="H21">
-        <v>1.313706091969205</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="I21">
-        <v>0.7870593508693956</v>
+        <v>1.17140193</v>
       </c>
       <c r="J21">
-        <v>1.125456940596353</v>
+        <v>1.164093971978947</v>
       </c>
       <c r="K21">
-        <v>1.313706091969205</v>
+        <v>0.741493452105263</v>
       </c>
       <c r="L21">
-        <v>0.7870593508693956</v>
+        <v>1.17140193</v>
       </c>
       <c r="M21">
-        <v>0.956258145732874</v>
+        <v>1.167747950989474</v>
       </c>
       <c r="N21">
-        <v>0.956258145732874</v>
+        <v>1.167747950989474</v>
       </c>
       <c r="O21">
-        <v>1.017555048533238</v>
+        <v>1.038755501221053</v>
       </c>
       <c r="P21">
-        <v>1.075407461144984</v>
+        <v>1.02566311802807</v>
       </c>
       <c r="Q21">
-        <v>1.075407461144984</v>
+        <v>1.02566311802807</v>
       </c>
       <c r="R21">
-        <v>1.134982118851039</v>
+        <v>0.9546207015473682</v>
       </c>
       <c r="S21">
-        <v>1.134982118851039</v>
+        <v>0.9546207015473682</v>
       </c>
       <c r="T21">
-        <v>0.9562919938297041</v>
+        <v>1.130741852803509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9767818221903002</v>
+        <v>1.080359445789474</v>
       </c>
       <c r="D22">
-        <v>0.7900084152057384</v>
+        <v>1.177367331578947</v>
       </c>
       <c r="E22">
-        <v>1.052349445627135</v>
+        <v>0.8303641778947368</v>
       </c>
       <c r="F22">
-        <v>1.105634345971594</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="G22">
-        <v>1.094161018815264</v>
+        <v>0.3933302182947369</v>
       </c>
       <c r="H22">
-        <v>0.7900084152057384</v>
+        <v>1.177367331578947</v>
       </c>
       <c r="I22">
-        <v>1.06089073210089</v>
+        <v>1.057789206315789</v>
       </c>
       <c r="J22">
-        <v>1.094161018815264</v>
+        <v>0.3933302182947369</v>
       </c>
       <c r="K22">
-        <v>0.7900084152057384</v>
+        <v>1.177367331578947</v>
       </c>
       <c r="L22">
-        <v>1.06089073210089</v>
+        <v>1.057789206315789</v>
       </c>
       <c r="M22">
-        <v>1.077525875458077</v>
+        <v>0.7255597123052631</v>
       </c>
       <c r="N22">
-        <v>1.077525875458077</v>
+        <v>0.7255597123052631</v>
       </c>
       <c r="O22">
-        <v>1.069133732181096</v>
+        <v>0.7604945341684211</v>
       </c>
       <c r="P22">
-        <v>0.9816867220406307</v>
+        <v>0.8761622520631578</v>
       </c>
       <c r="Q22">
-        <v>0.9816867220406307</v>
+        <v>0.8761622520631578</v>
       </c>
       <c r="R22">
-        <v>0.9337671453319076</v>
+        <v>0.9514635219421053</v>
       </c>
       <c r="S22">
-        <v>0.9337671453319076</v>
+        <v>0.9514635219421053</v>
       </c>
       <c r="T22">
-        <v>1.01330429665182</v>
+        <v>0.9503009989438596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9545422929170098</v>
+        <v>0.9535375630950802</v>
       </c>
       <c r="D23">
-        <v>1.306567086775266</v>
+        <v>1.313706091969205</v>
       </c>
       <c r="E23">
-        <v>1.151264810053729</v>
+        <v>1.140148854133967</v>
       </c>
       <c r="F23">
-        <v>0.3915885631048786</v>
+        <v>0.4178431623142244</v>
       </c>
       <c r="G23">
-        <v>1.016720245427739</v>
+        <v>1.125456940596353</v>
       </c>
       <c r="H23">
-        <v>1.306567086775266</v>
+        <v>1.313706091969205</v>
       </c>
       <c r="I23">
-        <v>0.8043963162955584</v>
+        <v>0.7870593508693956</v>
       </c>
       <c r="J23">
-        <v>1.016720245427739</v>
+        <v>1.125456940596353</v>
       </c>
       <c r="K23">
-        <v>1.306567086775266</v>
+        <v>1.313706091969205</v>
       </c>
       <c r="L23">
-        <v>0.8043963162955584</v>
+        <v>0.7870593508693956</v>
       </c>
       <c r="M23">
-        <v>0.9105582808616488</v>
+        <v>0.956258145732874</v>
       </c>
       <c r="N23">
-        <v>0.9105582808616488</v>
+        <v>0.956258145732874</v>
       </c>
       <c r="O23">
-        <v>0.9907937905923423</v>
+        <v>1.017555048533238</v>
       </c>
       <c r="P23">
-        <v>1.042561216166188</v>
+        <v>1.075407461144984</v>
       </c>
       <c r="Q23">
-        <v>1.042561216166188</v>
+        <v>1.075407461144984</v>
       </c>
       <c r="R23">
-        <v>1.108562683818457</v>
+        <v>1.134982118851039</v>
       </c>
       <c r="S23">
-        <v>1.108562683818457</v>
+        <v>1.134982118851039</v>
       </c>
       <c r="T23">
-        <v>0.9375132190956968</v>
+        <v>0.9562919938297041</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9803024679840763</v>
+        <v>0.9767818221903002</v>
       </c>
       <c r="D24">
-        <v>0.8282413586221009</v>
+        <v>0.7900084152057384</v>
       </c>
       <c r="E24">
-        <v>1.026464024244751</v>
+        <v>1.052349445627135</v>
       </c>
       <c r="F24">
-        <v>1.103163809605186</v>
+        <v>1.105634345971594</v>
       </c>
       <c r="G24">
-        <v>1.220087447326808</v>
+        <v>1.094161018815264</v>
       </c>
       <c r="H24">
-        <v>0.8282413586221009</v>
+        <v>0.7900084152057384</v>
       </c>
       <c r="I24">
-        <v>1.045606209063362</v>
+        <v>1.06089073210089</v>
       </c>
       <c r="J24">
-        <v>1.220087447326808</v>
+        <v>1.094161018815264</v>
       </c>
       <c r="K24">
-        <v>0.8282413586221009</v>
+        <v>0.7900084152057384</v>
       </c>
       <c r="L24">
-        <v>1.045606209063362</v>
+        <v>1.06089073210089</v>
       </c>
       <c r="M24">
-        <v>1.132846828195085</v>
+        <v>1.077525875458077</v>
       </c>
       <c r="N24">
-        <v>1.132846828195085</v>
+        <v>1.077525875458077</v>
       </c>
       <c r="O24">
-        <v>1.097385893544974</v>
+        <v>1.069133732181096</v>
       </c>
       <c r="P24">
-        <v>1.031311671670757</v>
+        <v>0.9816867220406307</v>
       </c>
       <c r="Q24">
-        <v>1.031311671670757</v>
+        <v>0.9816867220406307</v>
       </c>
       <c r="R24">
-        <v>0.9805440934085932</v>
+        <v>0.9337671453319076</v>
       </c>
       <c r="S24">
-        <v>0.9805440934085932</v>
+        <v>0.9337671453319076</v>
       </c>
       <c r="T24">
-        <v>1.033977552807714</v>
+        <v>1.01330429665182</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9559251836514618</v>
+        <v>0.9545422929170098</v>
       </c>
       <c r="D25">
-        <v>1.29920124733318</v>
+        <v>1.306567086775266</v>
       </c>
       <c r="E25">
-        <v>1.162692241699901</v>
+        <v>1.151264810053729</v>
       </c>
       <c r="F25">
-        <v>0.3653580057850038</v>
+        <v>0.3915885631048786</v>
       </c>
       <c r="G25">
-        <v>0.9064762967194058</v>
+        <v>1.016720245427739</v>
       </c>
       <c r="H25">
-        <v>1.29920124733318</v>
+        <v>1.306567086775266</v>
       </c>
       <c r="I25">
-        <v>0.822086687596558</v>
+        <v>0.8043963162955584</v>
       </c>
       <c r="J25">
-        <v>0.9064762967194058</v>
+        <v>1.016720245427739</v>
       </c>
       <c r="K25">
-        <v>1.29920124733318</v>
+        <v>1.306567086775266</v>
       </c>
       <c r="L25">
-        <v>0.822086687596558</v>
+        <v>0.8043963162955584</v>
       </c>
       <c r="M25">
-        <v>0.8642814921579819</v>
+        <v>0.9105582808616488</v>
       </c>
       <c r="N25">
-        <v>0.8642814921579819</v>
+        <v>0.9105582808616488</v>
       </c>
       <c r="O25">
-        <v>0.9637517420052882</v>
+        <v>0.9907937905923423</v>
       </c>
       <c r="P25">
-        <v>1.009254743883048</v>
+        <v>1.042561216166188</v>
       </c>
       <c r="Q25">
-        <v>1.009254743883048</v>
+        <v>1.042561216166188</v>
       </c>
       <c r="R25">
-        <v>1.081741369745581</v>
+        <v>1.108562683818457</v>
       </c>
       <c r="S25">
-        <v>1.081741369745581</v>
+        <v>1.108562683818457</v>
       </c>
       <c r="T25">
-        <v>0.9186232771309184</v>
+        <v>0.9375132190956968</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9835934493494953</v>
+        <v>0.9803024679840763</v>
       </c>
       <c r="D26">
-        <v>0.8665367965457179</v>
+        <v>0.8282413586221009</v>
       </c>
       <c r="E26">
-        <v>1.000311077396204</v>
+        <v>1.026464024244751</v>
       </c>
       <c r="F26">
-        <v>1.100772996466767</v>
+        <v>1.103163809605186</v>
       </c>
       <c r="G26">
-        <v>1.347091756297569</v>
+        <v>1.220087447326808</v>
       </c>
       <c r="H26">
-        <v>0.8665367965457179</v>
+        <v>0.8282413586221009</v>
       </c>
       <c r="I26">
-        <v>1.029999463662073</v>
+        <v>1.045606209063362</v>
       </c>
       <c r="J26">
-        <v>1.347091756297569</v>
+        <v>1.220087447326808</v>
       </c>
       <c r="K26">
-        <v>0.8665367965457179</v>
+        <v>0.8282413586221009</v>
       </c>
       <c r="L26">
-        <v>1.029999463662073</v>
+        <v>1.045606209063362</v>
       </c>
       <c r="M26">
-        <v>1.188545609979821</v>
+        <v>1.132846828195085</v>
       </c>
       <c r="N26">
-        <v>1.188545609979821</v>
+        <v>1.132846828195085</v>
       </c>
       <c r="O26">
-        <v>1.125800765785282</v>
+        <v>1.097385893544974</v>
       </c>
       <c r="P26">
-        <v>1.08120933883512</v>
+        <v>1.031311671670757</v>
       </c>
       <c r="Q26">
-        <v>1.08120933883512</v>
+        <v>1.031311671670757</v>
       </c>
       <c r="R26">
-        <v>1.027541203262769</v>
+        <v>0.9805440934085932</v>
       </c>
       <c r="S26">
-        <v>1.027541203262769</v>
+        <v>0.9805440934085932</v>
       </c>
       <c r="T26">
-        <v>1.054717589952971</v>
+        <v>1.033977552807714</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.004863894098768</v>
+        <v>0.9559251836514618</v>
       </c>
       <c r="D27">
-        <v>1.033029295355575</v>
+        <v>1.29920124733318</v>
       </c>
       <c r="E27">
-        <v>0.9738723371902859</v>
+        <v>1.162692241699901</v>
       </c>
       <c r="F27">
-        <v>1.138378979556837</v>
+        <v>0.3653580057850038</v>
       </c>
       <c r="G27">
-        <v>0.6904648474309661</v>
+        <v>0.9064762967194058</v>
       </c>
       <c r="H27">
-        <v>1.033029295355575</v>
+        <v>1.29920124733318</v>
       </c>
       <c r="I27">
-        <v>1.008959359014159</v>
+        <v>0.822086687596558</v>
       </c>
       <c r="J27">
-        <v>0.6904648474309661</v>
+        <v>0.9064762967194058</v>
       </c>
       <c r="K27">
-        <v>1.033029295355575</v>
+        <v>1.29920124733318</v>
       </c>
       <c r="L27">
-        <v>1.008959359014159</v>
+        <v>0.822086687596558</v>
       </c>
       <c r="M27">
-        <v>0.8497121032225627</v>
+        <v>0.8642814921579819</v>
       </c>
       <c r="N27">
-        <v>0.8497121032225627</v>
+        <v>0.8642814921579819</v>
       </c>
       <c r="O27">
-        <v>0.8910988478784705</v>
+        <v>0.9637517420052882</v>
       </c>
       <c r="P27">
-        <v>0.9108178339335669</v>
+        <v>1.009254743883048</v>
       </c>
       <c r="Q27">
-        <v>0.910817833933567</v>
+        <v>1.009254743883048</v>
       </c>
       <c r="R27">
-        <v>0.941370699289069</v>
+        <v>1.081741369745581</v>
       </c>
       <c r="S27">
-        <v>0.941370699289069</v>
+        <v>1.081741369745581</v>
       </c>
       <c r="T27">
-        <v>0.9749281187744319</v>
+        <v>0.9186232771309184</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.062641005984206</v>
+        <v>0.9835934493494953</v>
       </c>
       <c r="D28">
-        <v>0.9301915386292831</v>
+        <v>0.8665367965457179</v>
       </c>
       <c r="E28">
-        <v>0.9561321046794014</v>
+        <v>1.000311077396204</v>
       </c>
       <c r="F28">
-        <v>0.801089990859043</v>
+        <v>1.100772996466767</v>
       </c>
       <c r="G28">
-        <v>1.034837450252357</v>
+        <v>1.347091756297569</v>
       </c>
       <c r="H28">
-        <v>0.9301915386292831</v>
+        <v>0.8665367965457179</v>
       </c>
       <c r="I28">
-        <v>1.08015186304559</v>
+        <v>1.029999463662073</v>
       </c>
       <c r="J28">
-        <v>1.034837450252357</v>
+        <v>1.347091756297569</v>
       </c>
       <c r="K28">
-        <v>0.9301915386292831</v>
+        <v>0.8665367965457179</v>
       </c>
       <c r="L28">
-        <v>1.08015186304559</v>
+        <v>1.029999463662073</v>
       </c>
       <c r="M28">
-        <v>1.057494656648973</v>
+        <v>1.188545609979821</v>
       </c>
       <c r="N28">
-        <v>1.057494656648973</v>
+        <v>1.188545609979821</v>
       </c>
       <c r="O28">
-        <v>1.023707139325783</v>
+        <v>1.125800765785282</v>
       </c>
       <c r="P28">
-        <v>1.015060283975743</v>
+        <v>1.08120933883512</v>
       </c>
       <c r="Q28">
-        <v>1.015060283975743</v>
+        <v>1.08120933883512</v>
       </c>
       <c r="R28">
-        <v>0.9938430976391281</v>
+        <v>1.027541203262769</v>
       </c>
       <c r="S28">
-        <v>0.9938430976391281</v>
+        <v>1.027541203262769</v>
       </c>
       <c r="T28">
-        <v>0.9775073255749799</v>
+        <v>1.054717589952971</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.004863894098768</v>
+      </c>
+      <c r="D29">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="E29">
+        <v>0.9738723371902859</v>
+      </c>
+      <c r="F29">
+        <v>1.138378979556837</v>
+      </c>
+      <c r="G29">
+        <v>0.6904648474309661</v>
+      </c>
+      <c r="H29">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="I29">
+        <v>1.008959359014159</v>
+      </c>
+      <c r="J29">
+        <v>0.6904648474309661</v>
+      </c>
+      <c r="K29">
+        <v>1.033029295355575</v>
+      </c>
+      <c r="L29">
+        <v>1.008959359014159</v>
+      </c>
+      <c r="M29">
+        <v>0.8497121032225627</v>
+      </c>
+      <c r="N29">
+        <v>0.8497121032225627</v>
+      </c>
+      <c r="O29">
+        <v>0.8910988478784705</v>
+      </c>
+      <c r="P29">
+        <v>0.9108178339335669</v>
+      </c>
+      <c r="Q29">
+        <v>0.910817833933567</v>
+      </c>
+      <c r="R29">
+        <v>0.941370699289069</v>
+      </c>
+      <c r="S29">
+        <v>0.941370699289069</v>
+      </c>
+      <c r="T29">
+        <v>0.9749281187744319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.062641005984206</v>
+      </c>
+      <c r="D30">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="E30">
+        <v>0.9561321046794014</v>
+      </c>
+      <c r="F30">
+        <v>0.801089990859043</v>
+      </c>
+      <c r="G30">
+        <v>1.034837450252357</v>
+      </c>
+      <c r="H30">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="I30">
+        <v>1.08015186304559</v>
+      </c>
+      <c r="J30">
+        <v>1.034837450252357</v>
+      </c>
+      <c r="K30">
+        <v>0.9301915386292831</v>
+      </c>
+      <c r="L30">
+        <v>1.08015186304559</v>
+      </c>
+      <c r="M30">
+        <v>1.057494656648973</v>
+      </c>
+      <c r="N30">
+        <v>1.057494656648973</v>
+      </c>
+      <c r="O30">
+        <v>1.023707139325783</v>
+      </c>
+      <c r="P30">
+        <v>1.015060283975743</v>
+      </c>
+      <c r="Q30">
+        <v>1.015060283975743</v>
+      </c>
+      <c r="R30">
+        <v>0.9938430976391281</v>
+      </c>
+      <c r="S30">
+        <v>0.9938430976391281</v>
+      </c>
+      <c r="T30">
+        <v>0.9775073255749799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9056055083176673</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.026123435462688</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.154082976550505</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7133249286964937</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.868180047167535</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.026123435462688</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.7915365006207972</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.868180047167535</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.026123435462688</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.7915365006207972</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.329858273894166</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.329858273894166</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.271266508112946</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.22861332775034</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.22861332775034</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.177990854678427</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.177990854678427</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.076475566135948</v>
       </c>
     </row>
